--- a/data/trans_orig/IP16B03-Edad-trans_orig.xlsx
+++ b/data/trans_orig/IP16B03-Edad-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27029"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27126"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_menores\trans_orig\Auxiliares\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS_menores\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{B4366620-2D41-43F2-8783-606C7CC097E4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{B0233B22-B403-403D-8583-0EC55A99F7D9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1080" yWindow="1080" windowWidth="17280" windowHeight="8880" xr2:uid="{16D49577-D09D-4628-A444-86F6F7FF7C80}"/>
+    <workbookView xWindow="1080" yWindow="1080" windowWidth="17280" windowHeight="8880" xr2:uid="{24B6565C-9279-46D3-A8D1-73F2AE2F4480}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
@@ -118,36 +118,36 @@
     <t>64,5%</t>
   </si>
   <si>
+    <t>5/9</t>
+  </si>
+  <si>
+    <t>36,25%</t>
+  </si>
+  <si>
+    <t>56,93%</t>
+  </si>
+  <si>
+    <t>26,42%</t>
+  </si>
+  <si>
+    <t>63,75%</t>
+  </si>
+  <si>
+    <t>43,07%</t>
+  </si>
+  <si>
+    <t>73,58%</t>
+  </si>
+  <si>
     <t>10/15</t>
   </si>
   <si>
-    <t>36,25%</t>
-  </si>
-  <si>
     <t>44,41%</t>
   </si>
   <si>
-    <t>63,75%</t>
-  </si>
-  <si>
     <t>55,59%</t>
   </si>
   <si>
-    <t>5/9</t>
-  </si>
-  <si>
-    <t>56,93%</t>
-  </si>
-  <si>
-    <t>26,42%</t>
-  </si>
-  <si>
-    <t>43,07%</t>
-  </si>
-  <si>
-    <t>73,58%</t>
-  </si>
-  <si>
     <t>7,57%</t>
   </si>
   <si>
@@ -190,25 +190,25 @@
     <t>77,15%</t>
   </si>
   <si>
+    <t>30,57%</t>
+  </si>
+  <si>
+    <t>22,85%</t>
+  </si>
+  <si>
+    <t>69,43%</t>
+  </si>
+  <si>
     <t>49,18%</t>
   </si>
   <si>
     <t>34,15%</t>
   </si>
   <si>
-    <t>22,85%</t>
-  </si>
-  <si>
     <t>50,82%</t>
   </si>
   <si>
     <t>65,85%</t>
-  </si>
-  <si>
-    <t>30,57%</t>
-  </si>
-  <si>
-    <t>69,43%</t>
   </si>
   <si>
     <t>20,75%</t>
@@ -666,7 +666,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2BA5CA4E-183D-4FC6-915F-B8D6B85CE5D5}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2882A820-6F49-45DA-912F-2D48D3C8A2BD}">
   <dimension ref="A1:Q15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -981,7 +981,7 @@
         <v>14</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>15</v>
+        <v>29</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -993,43 +993,43 @@
         <v>4</v>
       </c>
       <c r="D8" s="7">
-        <v>2687</v>
+        <v>2806</v>
       </c>
       <c r="E8" s="7" t="s">
         <v>21</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="G8" s="7" t="s">
         <v>23</v>
       </c>
       <c r="H8" s="7">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I8" s="7">
-        <v>1811</v>
+        <v>1360</v>
       </c>
       <c r="J8" s="7" t="s">
         <v>21</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="L8" s="7" t="s">
         <v>23</v>
       </c>
       <c r="M8" s="7">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="N8" s="7">
-        <v>4498</v>
+        <v>4166</v>
       </c>
       <c r="O8" s="7" t="s">
         <v>21</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>22</v>
+        <v>32</v>
       </c>
       <c r="Q8" s="7" t="s">
         <v>23</v>
@@ -1044,7 +1044,7 @@
         <v>4</v>
       </c>
       <c r="D9" s="7">
-        <v>2687</v>
+        <v>2806</v>
       </c>
       <c r="E9" s="7" t="s">
         <v>23</v>
@@ -1056,10 +1056,10 @@
         <v>23</v>
       </c>
       <c r="H9" s="7">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I9" s="7">
-        <v>1811</v>
+        <v>1360</v>
       </c>
       <c r="J9" s="7" t="s">
         <v>23</v>
@@ -1071,10 +1071,10 @@
         <v>23</v>
       </c>
       <c r="M9" s="7">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="N9" s="7">
-        <v>4498</v>
+        <v>4166</v>
       </c>
       <c r="O9" s="7" t="s">
         <v>23</v>
@@ -1088,7 +1088,7 @@
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="B10" s="5" t="s">
         <v>10</v>
@@ -1121,7 +1121,7 @@
         <v>14</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="M10" s="7">
         <v>0</v>
@@ -1136,7 +1136,7 @@
         <v>14</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>33</v>
+        <v>15</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -1148,43 +1148,43 @@
         <v>4</v>
       </c>
       <c r="D11" s="7">
-        <v>2806</v>
+        <v>2687</v>
       </c>
       <c r="E11" s="7" t="s">
         <v>21</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="G11" s="7" t="s">
         <v>23</v>
       </c>
       <c r="H11" s="7">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I11" s="7">
-        <v>1360</v>
+        <v>1811</v>
       </c>
       <c r="J11" s="7" t="s">
         <v>21</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="L11" s="7" t="s">
         <v>23</v>
       </c>
       <c r="M11" s="7">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="N11" s="7">
-        <v>4166</v>
+        <v>4498</v>
       </c>
       <c r="O11" s="7" t="s">
         <v>21</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>35</v>
+        <v>22</v>
       </c>
       <c r="Q11" s="7" t="s">
         <v>23</v>
@@ -1199,7 +1199,7 @@
         <v>4</v>
       </c>
       <c r="D12" s="7">
-        <v>2806</v>
+        <v>2687</v>
       </c>
       <c r="E12" s="7" t="s">
         <v>23</v>
@@ -1211,10 +1211,10 @@
         <v>23</v>
       </c>
       <c r="H12" s="7">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I12" s="7">
-        <v>1360</v>
+        <v>1811</v>
       </c>
       <c r="J12" s="7" t="s">
         <v>23</v>
@@ -1226,10 +1226,10 @@
         <v>23</v>
       </c>
       <c r="M12" s="7">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="N12" s="7">
-        <v>4166</v>
+        <v>4498</v>
       </c>
       <c r="O12" s="7" t="s">
         <v>23</v>
@@ -1412,7 +1412,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{71198682-3A4F-4305-85E3-A910136A4916}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{047AFF1B-97DC-4FB3-BDBA-94891A3E157C}">
   <dimension ref="A1:Q15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -1542,7 +1542,7 @@
         <v>14</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="H4" s="7">
         <v>0</v>
@@ -1557,7 +1557,7 @@
         <v>14</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>28</v>
+        <v>34</v>
       </c>
       <c r="M4" s="7">
         <v>0</v>
@@ -1590,7 +1590,7 @@
         <v>21</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="G5" s="7" t="s">
         <v>23</v>
@@ -1605,7 +1605,7 @@
         <v>21</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="L5" s="7" t="s">
         <v>23</v>
@@ -1700,34 +1700,34 @@
         <v>49</v>
       </c>
       <c r="H7" s="7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I7" s="7">
-        <v>678</v>
+        <v>0</v>
       </c>
       <c r="J7" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="K7" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="L7" s="7" t="s">
         <v>50</v>
       </c>
-      <c r="K7" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="L7" s="7" t="s">
-        <v>21</v>
-      </c>
       <c r="M7" s="7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N7" s="7">
-        <v>678</v>
+        <v>0</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>51</v>
+        <v>12</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>21</v>
+        <v>29</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -1739,46 +1739,46 @@
         <v>1</v>
       </c>
       <c r="D8" s="7">
-        <v>607</v>
+        <v>887</v>
       </c>
       <c r="E8" s="7" t="s">
         <v>21</v>
       </c>
       <c r="F8" s="7" t="s">
+        <v>51</v>
+      </c>
+      <c r="G8" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="H8" s="7">
+        <v>5</v>
+      </c>
+      <c r="I8" s="7">
+        <v>3308</v>
+      </c>
+      <c r="J8" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="K8" s="7" t="s">
         <v>52</v>
       </c>
-      <c r="G8" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="H8" s="7">
-        <v>1</v>
-      </c>
-      <c r="I8" s="7">
-        <v>701</v>
-      </c>
-      <c r="J8" s="7" t="s">
-        <v>53</v>
-      </c>
-      <c r="K8" s="7" t="s">
-        <v>12</v>
-      </c>
       <c r="L8" s="7" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="M8" s="7">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="N8" s="7">
-        <v>1308</v>
+        <v>4194</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>54</v>
+        <v>21</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>12</v>
+        <v>32</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -1790,7 +1790,7 @@
         <v>1</v>
       </c>
       <c r="D9" s="7">
-        <v>607</v>
+        <v>887</v>
       </c>
       <c r="E9" s="7" t="s">
         <v>23</v>
@@ -1802,10 +1802,10 @@
         <v>23</v>
       </c>
       <c r="H9" s="7">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="I9" s="7">
-        <v>1379</v>
+        <v>3308</v>
       </c>
       <c r="J9" s="7" t="s">
         <v>23</v>
@@ -1817,10 +1817,10 @@
         <v>23</v>
       </c>
       <c r="M9" s="7">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="N9" s="7">
-        <v>1986</v>
+        <v>4194</v>
       </c>
       <c r="O9" s="7" t="s">
         <v>23</v>
@@ -1834,7 +1834,7 @@
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="B10" s="5" t="s">
         <v>10</v>
@@ -1855,34 +1855,34 @@
         <v>49</v>
       </c>
       <c r="H10" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I10" s="7">
-        <v>0</v>
+        <v>678</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>12</v>
+        <v>53</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>55</v>
+        <v>21</v>
       </c>
       <c r="M10" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N10" s="7">
-        <v>0</v>
+        <v>678</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>12</v>
+        <v>54</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>33</v>
+        <v>21</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -1894,46 +1894,46 @@
         <v>1</v>
       </c>
       <c r="D11" s="7">
-        <v>887</v>
+        <v>607</v>
       </c>
       <c r="E11" s="7" t="s">
         <v>21</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="G11" s="7" t="s">
         <v>23</v>
       </c>
       <c r="H11" s="7">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="I11" s="7">
-        <v>3308</v>
+        <v>701</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>21</v>
+        <v>55</v>
       </c>
       <c r="K11" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="L11" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="M11" s="7">
+        <v>2</v>
+      </c>
+      <c r="N11" s="7">
+        <v>1308</v>
+      </c>
+      <c r="O11" s="7" t="s">
         <v>56</v>
       </c>
-      <c r="L11" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="M11" s="7">
-        <v>6</v>
-      </c>
-      <c r="N11" s="7">
-        <v>4194</v>
-      </c>
-      <c r="O11" s="7" t="s">
-        <v>21</v>
-      </c>
       <c r="P11" s="7" t="s">
-        <v>35</v>
+        <v>12</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -1945,7 +1945,7 @@
         <v>1</v>
       </c>
       <c r="D12" s="7">
-        <v>887</v>
+        <v>607</v>
       </c>
       <c r="E12" s="7" t="s">
         <v>23</v>
@@ -1957,10 +1957,10 @@
         <v>23</v>
       </c>
       <c r="H12" s="7">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="I12" s="7">
-        <v>3308</v>
+        <v>1379</v>
       </c>
       <c r="J12" s="7" t="s">
         <v>23</v>
@@ -1972,10 +1972,10 @@
         <v>23</v>
       </c>
       <c r="M12" s="7">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="N12" s="7">
-        <v>4194</v>
+        <v>1986</v>
       </c>
       <c r="O12" s="7" t="s">
         <v>23</v>
@@ -2158,7 +2158,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4146A768-5580-4ADE-BDC0-FC60B491EB28}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{469A157B-4F54-4B78-B697-C9F444C5E10B}">
   <dimension ref="A1:Q15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2288,7 +2288,7 @@
         <v>14</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>28</v>
+        <v>34</v>
       </c>
       <c r="H4" s="7">
         <v>1</v>
@@ -2336,7 +2336,7 @@
         <v>21</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="G5" s="7" t="s">
         <v>23</v>
@@ -2443,7 +2443,7 @@
         <v>14</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>32</v>
+        <v>27</v>
       </c>
       <c r="H7" s="7">
         <v>0</v>
@@ -2473,7 +2473,7 @@
         <v>14</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>28</v>
+        <v>50</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -2482,16 +2482,16 @@
         <v>18</v>
       </c>
       <c r="C8" s="7">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D8" s="7">
-        <v>1479</v>
+        <v>2803</v>
       </c>
       <c r="E8" s="7" t="s">
         <v>21</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="G8" s="7" t="s">
         <v>23</v>
@@ -2500,28 +2500,28 @@
         <v>1</v>
       </c>
       <c r="I8" s="7">
-        <v>765</v>
+        <v>705</v>
       </c>
       <c r="J8" s="7" t="s">
         <v>21</v>
       </c>
       <c r="K8" s="7" t="s">
+        <v>51</v>
+      </c>
+      <c r="L8" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="M8" s="7">
+        <v>5</v>
+      </c>
+      <c r="N8" s="7">
+        <v>3508</v>
+      </c>
+      <c r="O8" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="P8" s="7" t="s">
         <v>52</v>
-      </c>
-      <c r="L8" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="M8" s="7">
-        <v>3</v>
-      </c>
-      <c r="N8" s="7">
-        <v>2244</v>
-      </c>
-      <c r="O8" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="P8" s="7" t="s">
-        <v>30</v>
       </c>
       <c r="Q8" s="7" t="s">
         <v>23</v>
@@ -2533,10 +2533,10 @@
         <v>3</v>
       </c>
       <c r="C9" s="7">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D9" s="7">
-        <v>1479</v>
+        <v>2803</v>
       </c>
       <c r="E9" s="7" t="s">
         <v>23</v>
@@ -2551,7 +2551,7 @@
         <v>1</v>
       </c>
       <c r="I9" s="7">
-        <v>765</v>
+        <v>705</v>
       </c>
       <c r="J9" s="7" t="s">
         <v>23</v>
@@ -2563,10 +2563,10 @@
         <v>23</v>
       </c>
       <c r="M9" s="7">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="N9" s="7">
-        <v>2244</v>
+        <v>3508</v>
       </c>
       <c r="O9" s="7" t="s">
         <v>23</v>
@@ -2580,7 +2580,7 @@
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="B10" s="5" t="s">
         <v>10</v>
@@ -2598,7 +2598,7 @@
         <v>14</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="H10" s="7">
         <v>0</v>
@@ -2628,7 +2628,7 @@
         <v>14</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>55</v>
+        <v>34</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -2637,16 +2637,16 @@
         <v>18</v>
       </c>
       <c r="C11" s="7">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D11" s="7">
-        <v>2803</v>
+        <v>1479</v>
       </c>
       <c r="E11" s="7" t="s">
         <v>21</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="G11" s="7" t="s">
         <v>23</v>
@@ -2655,28 +2655,28 @@
         <v>1</v>
       </c>
       <c r="I11" s="7">
-        <v>705</v>
+        <v>765</v>
       </c>
       <c r="J11" s="7" t="s">
         <v>21</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="L11" s="7" t="s">
         <v>23</v>
       </c>
       <c r="M11" s="7">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="N11" s="7">
-        <v>3508</v>
+        <v>2244</v>
       </c>
       <c r="O11" s="7" t="s">
         <v>21</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>56</v>
+        <v>35</v>
       </c>
       <c r="Q11" s="7" t="s">
         <v>23</v>
@@ -2688,10 +2688,10 @@
         <v>3</v>
       </c>
       <c r="C12" s="7">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D12" s="7">
-        <v>2803</v>
+        <v>1479</v>
       </c>
       <c r="E12" s="7" t="s">
         <v>23</v>
@@ -2706,7 +2706,7 @@
         <v>1</v>
       </c>
       <c r="I12" s="7">
-        <v>705</v>
+        <v>765</v>
       </c>
       <c r="J12" s="7" t="s">
         <v>23</v>
@@ -2718,10 +2718,10 @@
         <v>23</v>
       </c>
       <c r="M12" s="7">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="N12" s="7">
-        <v>3508</v>
+        <v>2244</v>
       </c>
       <c r="O12" s="7" t="s">
         <v>23</v>

--- a/data/trans_orig/IP16B03-Edad-trans_orig.xlsx
+++ b/data/trans_orig/IP16B03-Edad-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27126"/>
-  <workbookPr defaultThemeVersion="166925"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
+  <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS_menores\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{B0233B22-B403-403D-8583-0EC55A99F7D9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{3391D4DE-94B0-42FD-A86A-A2C2BEFDA78F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1080" yWindow="1080" windowWidth="17280" windowHeight="8880" xr2:uid="{24B6565C-9279-46D3-A8D1-73F2AE2F4480}"/>
+    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{F25B0758-7972-4894-83F0-B6D8A36DF736}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="429" uniqueCount="79">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="525" uniqueCount="82">
   <si>
     <t>Menores según si ha consumido recostituyentes recetados por el médico en 2007 (Tasa respuesta: 1,24%)</t>
   </si>
@@ -67,214 +67,223 @@
     <t>lím sup IC</t>
   </si>
   <si>
-    <t>0/4</t>
+    <t>0-2</t>
+  </si>
+  <si>
+    <t>Sí</t>
+  </si>
+  <si>
+    <t>100,0%</t>
+  </si>
+  <si>
+    <t>22,85%</t>
+  </si>
+  <si>
+    <t>100%</t>
+  </si>
+  <si>
+    <t>69,43%</t>
+  </si>
+  <si>
+    <t>73,58%</t>
   </si>
   <si>
     <t>No</t>
   </si>
   <si>
-    <t>17,69%</t>
-  </si>
-  <si>
     <t>0,0%</t>
   </si>
   <si>
-    <t>70,35%</t>
-  </si>
-  <si>
     <t>0%</t>
   </si>
   <si>
+    <t>77,15%</t>
+  </si>
+  <si>
+    <t>30,57%</t>
+  </si>
+  <si>
+    <t>26,42%</t>
+  </si>
+  <si>
+    <t>3-7</t>
+  </si>
+  <si>
+    <t>88,26%</t>
+  </si>
+  <si>
+    <t>47,03%</t>
+  </si>
+  <si>
+    <t>55,59%</t>
+  </si>
+  <si>
+    <t>91,17%</t>
+  </si>
+  <si>
+    <t>63,81%</t>
+  </si>
+  <si>
+    <t>11,74%</t>
+  </si>
+  <si>
+    <t>52,97%</t>
+  </si>
+  <si>
+    <t>44,41%</t>
+  </si>
+  <si>
+    <t>8,83%</t>
+  </si>
+  <si>
+    <t>36,19%</t>
+  </si>
+  <si>
+    <t>8-11</t>
+  </si>
+  <si>
+    <t>43,07%</t>
+  </si>
+  <si>
+    <t>56,93%</t>
+  </si>
+  <si>
+    <t>12-15</t>
+  </si>
+  <si>
+    <t>92,43%</t>
+  </si>
+  <si>
+    <t>63,35%</t>
+  </si>
+  <si>
+    <t>85,49%</t>
+  </si>
+  <si>
+    <t>95,69%</t>
+  </si>
+  <si>
+    <t>82,03%</t>
+  </si>
+  <si>
+    <t>7,57%</t>
+  </si>
+  <si>
+    <t>36,65%</t>
+  </si>
+  <si>
+    <t>14,51%</t>
+  </si>
+  <si>
+    <t>4,31%</t>
+  </si>
+  <si>
+    <t>17,97%</t>
+  </si>
+  <si>
+    <t>Fuente: Encuesta Andaluza de Salud (menores)</t>
+  </si>
+  <si>
+    <t>Menores según si ha consumido recostituyentes recetados por el médico en 2012 (Tasa respuesta: 0,86%)</t>
+  </si>
+  <si>
+    <t>76,75%</t>
+  </si>
+  <si>
     <t>23,25%</t>
   </si>
   <si>
-    <t>8,85%</t>
-  </si>
-  <si>
-    <t>35,5%</t>
-  </si>
-  <si>
-    <t>Sí</t>
-  </si>
-  <si>
-    <t>82,31%</t>
-  </si>
-  <si>
-    <t>29,65%</t>
-  </si>
-  <si>
-    <t>100,0%</t>
-  </si>
-  <si>
-    <t>76,75%</t>
-  </si>
-  <si>
-    <t>100%</t>
-  </si>
-  <si>
-    <t>91,15%</t>
-  </si>
-  <si>
-    <t>64,5%</t>
-  </si>
-  <si>
-    <t>5/9</t>
+    <t>—%</t>
+  </si>
+  <si>
+    <t>63,75%</t>
   </si>
   <si>
     <t>36,25%</t>
   </si>
   <si>
-    <t>56,93%</t>
-  </si>
-  <si>
-    <t>26,42%</t>
-  </si>
-  <si>
-    <t>63,75%</t>
-  </si>
-  <si>
-    <t>43,07%</t>
-  </si>
-  <si>
-    <t>73,58%</t>
-  </si>
-  <si>
-    <t>10/15</t>
-  </si>
-  <si>
-    <t>44,41%</t>
-  </si>
-  <si>
-    <t>55,59%</t>
-  </si>
-  <si>
-    <t>7,57%</t>
-  </si>
-  <si>
-    <t>32,63%</t>
-  </si>
-  <si>
-    <t>14,51%</t>
-  </si>
-  <si>
-    <t>4,31%</t>
-  </si>
-  <si>
-    <t>22,5%</t>
-  </si>
-  <si>
-    <t>92,43%</t>
-  </si>
-  <si>
-    <t>67,37%</t>
-  </si>
-  <si>
-    <t>85,49%</t>
-  </si>
-  <si>
-    <t>95,69%</t>
-  </si>
-  <si>
-    <t>77,5%</t>
-  </si>
-  <si>
-    <t>Menores según si ha consumido recostituyentes recetados por el médico en 2012 (Tasa respuesta: 0,86%)</t>
+    <t>47,22%</t>
+  </si>
+  <si>
+    <t>52,78%</t>
+  </si>
+  <si>
+    <t>79,25%</t>
+  </si>
+  <si>
+    <t>89,67%</t>
+  </si>
+  <si>
+    <t>54,65%</t>
+  </si>
+  <si>
+    <t>94,63%</t>
+  </si>
+  <si>
+    <t>69,08%</t>
+  </si>
+  <si>
+    <t>20,75%</t>
+  </si>
+  <si>
+    <t>10,33%</t>
+  </si>
+  <si>
+    <t>45,35%</t>
+  </si>
+  <si>
+    <t>5,37%</t>
+  </si>
+  <si>
+    <t>30,92%</t>
+  </si>
+  <si>
+    <t>Menores según si ha consumido recostituyentes recetados por el médico en 2015 (Tasa respuesta: 0,61%)</t>
+  </si>
+  <si>
+    <t>50,0%</t>
+  </si>
+  <si>
+    <t>83,97%</t>
+  </si>
+  <si>
+    <t>20,0%</t>
+  </si>
+  <si>
+    <t>16,03%</t>
+  </si>
+  <si>
+    <t>80,0%</t>
+  </si>
+  <si>
+    <t>81,26%</t>
+  </si>
+  <si>
+    <t>80,89%</t>
+  </si>
+  <si>
+    <t>25,0%</t>
+  </si>
+  <si>
+    <t>94,71%</t>
+  </si>
+  <si>
+    <t>69,45%</t>
   </si>
   <si>
     <t>18,74%</t>
   </si>
   <si>
-    <t>81,26%</t>
-  </si>
-  <si>
-    <t>77,15%</t>
-  </si>
-  <si>
-    <t>30,57%</t>
-  </si>
-  <si>
-    <t>22,85%</t>
-  </si>
-  <si>
-    <t>69,43%</t>
-  </si>
-  <si>
-    <t>49,18%</t>
-  </si>
-  <si>
-    <t>34,15%</t>
-  </si>
-  <si>
-    <t>50,82%</t>
-  </si>
-  <si>
-    <t>65,85%</t>
-  </si>
-  <si>
-    <t>20,75%</t>
-  </si>
-  <si>
-    <t>10,33%</t>
-  </si>
-  <si>
-    <t>50,46%</t>
-  </si>
-  <si>
-    <t>5,37%</t>
-  </si>
-  <si>
-    <t>22,93%</t>
-  </si>
-  <si>
-    <t>79,25%</t>
-  </si>
-  <si>
-    <t>89,67%</t>
-  </si>
-  <si>
-    <t>49,54%</t>
-  </si>
-  <si>
-    <t>94,63%</t>
-  </si>
-  <si>
-    <t>77,07%</t>
-  </si>
-  <si>
-    <t>Menores según si ha consumido recostituyentes recetados por el médico en 2015 (Tasa respuesta: 0,61%)</t>
-  </si>
-  <si>
-    <t>50,0%</t>
-  </si>
-  <si>
-    <t>16,03%</t>
-  </si>
-  <si>
-    <t>80,0%</t>
-  </si>
-  <si>
-    <t>83,97%</t>
-  </si>
-  <si>
-    <t>20,0%</t>
-  </si>
-  <si>
     <t>19,11%</t>
   </si>
   <si>
+    <t>75,0%</t>
+  </si>
+  <si>
     <t>5,29%</t>
   </si>
   <si>
-    <t>24,26%</t>
-  </si>
-  <si>
-    <t>80,89%</t>
-  </si>
-  <si>
-    <t>94,71%</t>
-  </si>
-  <si>
-    <t>75,74%</t>
+    <t>30,55%</t>
   </si>
 </sst>
 </file>
@@ -285,7 +294,7 @@
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="Aptos Narrow"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -381,39 +390,39 @@
         <a:sysClr val="window" lastClr="FFFFFF"/>
       </a:lt1>
       <a:dk2>
-        <a:srgbClr val="44546A"/>
+        <a:srgbClr val="0E2841"/>
       </a:dk2>
       <a:lt2>
-        <a:srgbClr val="E7E6E6"/>
+        <a:srgbClr val="E8E8E8"/>
       </a:lt2>
       <a:accent1>
-        <a:srgbClr val="4472C4"/>
+        <a:srgbClr val="156082"/>
       </a:accent1>
       <a:accent2>
-        <a:srgbClr val="ED7D31"/>
+        <a:srgbClr val="E97132"/>
       </a:accent2>
       <a:accent3>
-        <a:srgbClr val="A5A5A5"/>
+        <a:srgbClr val="196B24"/>
       </a:accent3>
       <a:accent4>
-        <a:srgbClr val="FFC000"/>
+        <a:srgbClr val="0F9ED5"/>
       </a:accent4>
       <a:accent5>
-        <a:srgbClr val="5B9BD5"/>
+        <a:srgbClr val="A02B93"/>
       </a:accent5>
       <a:accent6>
-        <a:srgbClr val="70AD47"/>
+        <a:srgbClr val="4EA72E"/>
       </a:accent6>
       <a:hlink>
-        <a:srgbClr val="0563C1"/>
+        <a:srgbClr val="467886"/>
       </a:hlink>
       <a:folHlink>
-        <a:srgbClr val="954F72"/>
+        <a:srgbClr val="96607D"/>
       </a:folHlink>
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:latin typeface="Aptos Display" panose="02110004020202020204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック Light"/>
@@ -465,7 +474,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Aptos Narrow" panose="02110004020202020204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック"/>
@@ -576,13 +585,6 @@
         </a:gradFill>
       </a:fillStyleLst>
       <a:lnStyleLst>
-        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
-          <a:solidFill>
-            <a:schemeClr val="phClr"/>
-          </a:solidFill>
-          <a:prstDash val="solid"/>
-          <a:miter lim="800000"/>
-        </a:ln>
         <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
@@ -591,6 +593,13 @@
           <a:miter lim="800000"/>
         </a:ln>
         <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
@@ -655,19 +664,39 @@
       </a:bgFillStyleLst>
     </a:fmtScheme>
   </a:themeElements>
-  <a:objectDefaults/>
+  <a:objectDefaults>
+    <a:lnDef>
+      <a:spPr/>
+      <a:bodyPr/>
+      <a:lstStyle/>
+      <a:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </a:style>
+    </a:lnDef>
+  </a:objectDefaults>
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{2E142A2C-CD16-42D6-873A-C26D2A0506FA}" vid="{1BDDFF52-6CD6-40A5-AB3C-68EB2F1E4D0A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2882A820-6F49-45DA-912F-2D48D3C8A2BD}">
-  <dimension ref="A1:Q15"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BAA2686A-A300-4232-94BE-3F961F94C22F}">
+  <dimension ref="A1:Q19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -799,82 +828,82 @@
         <v>13</v>
       </c>
       <c r="H4" s="7">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="I4" s="7">
-        <v>0</v>
+        <v>2796</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="K4" s="7" t="s">
         <v>14</v>
       </c>
       <c r="L4" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="M4" s="7">
+        <v>6</v>
+      </c>
+      <c r="N4" s="7">
+        <v>3523</v>
+      </c>
+      <c r="O4" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="P4" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="M4" s="7">
-        <v>1</v>
-      </c>
-      <c r="N4" s="7">
-        <v>726</v>
-      </c>
-      <c r="O4" s="7" t="s">
-        <v>16</v>
-      </c>
-      <c r="P4" s="7" t="s">
-        <v>12</v>
-      </c>
       <c r="Q4" s="7" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A5" s="1"/>
       <c r="B5" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="C5" s="7">
+        <v>0</v>
+      </c>
+      <c r="D5" s="7">
+        <v>0</v>
+      </c>
+      <c r="E5" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="F5" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="C5" s="7">
-        <v>5</v>
-      </c>
-      <c r="D5" s="7">
-        <v>3380</v>
-      </c>
-      <c r="E5" s="7" t="s">
+      <c r="G5" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="F5" s="7" t="s">
+      <c r="H5" s="7">
+        <v>0</v>
+      </c>
+      <c r="I5" s="7">
+        <v>0</v>
+      </c>
+      <c r="J5" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="K5" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="L5" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="G5" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="H5" s="7">
-        <v>7</v>
-      </c>
-      <c r="I5" s="7">
-        <v>4104</v>
-      </c>
-      <c r="J5" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="K5" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="L5" s="7" t="s">
-        <v>23</v>
-      </c>
       <c r="M5" s="7">
-        <v>12</v>
+        <v>0</v>
       </c>
       <c r="N5" s="7">
-        <v>7484</v>
+        <v>0</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>24</v>
+        <v>17</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>25</v>
+        <v>18</v>
       </c>
       <c r="Q5" s="7" t="s">
         <v>21</v>
@@ -886,153 +915,153 @@
         <v>3</v>
       </c>
       <c r="C6" s="7">
+        <v>1</v>
+      </c>
+      <c r="D6" s="7">
+        <v>726</v>
+      </c>
+      <c r="E6" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="F6" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="G6" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="H6" s="7">
+        <v>5</v>
+      </c>
+      <c r="I6" s="7">
+        <v>2796</v>
+      </c>
+      <c r="J6" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="K6" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="L6" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="M6" s="7">
         <v>6</v>
       </c>
-      <c r="D6" s="7">
-        <v>4106</v>
-      </c>
-      <c r="E6" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="F6" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="G6" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="H6" s="7">
-        <v>7</v>
-      </c>
-      <c r="I6" s="7">
-        <v>4104</v>
-      </c>
-      <c r="J6" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="K6" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="L6" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="M6" s="7">
-        <v>13</v>
-      </c>
       <c r="N6" s="7">
-        <v>8210</v>
+        <v>3523</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>23</v>
+        <v>13</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>23</v>
+        <v>13</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>23</v>
+        <v>13</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="B7" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C7" s="7">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="D7" s="7">
-        <v>0</v>
+        <v>5459</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>12</v>
+        <v>23</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>14</v>
+        <v>24</v>
       </c>
       <c r="G7" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="H7" s="7">
+        <v>3</v>
+      </c>
+      <c r="I7" s="7">
+        <v>2040</v>
+      </c>
+      <c r="J7" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="K7" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="L7" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="M7" s="7">
+        <v>11</v>
+      </c>
+      <c r="N7" s="7">
+        <v>7499</v>
+      </c>
+      <c r="O7" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="P7" s="7" t="s">
         <v>27</v>
       </c>
-      <c r="H7" s="7">
-        <v>0</v>
-      </c>
-      <c r="I7" s="7">
-        <v>0</v>
-      </c>
-      <c r="J7" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="K7" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="L7" s="7" t="s">
-        <v>28</v>
-      </c>
-      <c r="M7" s="7">
-        <v>0</v>
-      </c>
-      <c r="N7" s="7">
-        <v>0</v>
-      </c>
-      <c r="O7" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="P7" s="7" t="s">
-        <v>14</v>
-      </c>
       <c r="Q7" s="7" t="s">
-        <v>29</v>
+        <v>11</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A8" s="1"/>
       <c r="B8" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="C8" s="7">
+        <v>1</v>
+      </c>
+      <c r="D8" s="7">
+        <v>726</v>
+      </c>
+      <c r="E8" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="F8" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="G8" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="H8" s="7">
+        <v>0</v>
+      </c>
+      <c r="I8" s="7">
+        <v>0</v>
+      </c>
+      <c r="J8" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="K8" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="C8" s="7">
-        <v>4</v>
-      </c>
-      <c r="D8" s="7">
-        <v>2806</v>
-      </c>
-      <c r="E8" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="F8" s="7" t="s">
+      <c r="L8" s="7" t="s">
         <v>30</v>
       </c>
-      <c r="G8" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="H8" s="7">
-        <v>2</v>
-      </c>
-      <c r="I8" s="7">
-        <v>1360</v>
-      </c>
-      <c r="J8" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="K8" s="7" t="s">
+      <c r="M8" s="7">
+        <v>1</v>
+      </c>
+      <c r="N8" s="7">
+        <v>726</v>
+      </c>
+      <c r="O8" s="7" t="s">
         <v>31</v>
       </c>
-      <c r="L8" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="M8" s="7">
-        <v>6</v>
-      </c>
-      <c r="N8" s="7">
-        <v>4166</v>
-      </c>
-      <c r="O8" s="7" t="s">
-        <v>21</v>
-      </c>
       <c r="P8" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="Q8" s="7" t="s">
         <v>32</v>
-      </c>
-      <c r="Q8" s="7" t="s">
-        <v>23</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -1041,49 +1070,49 @@
         <v>3</v>
       </c>
       <c r="C9" s="7">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="D9" s="7">
-        <v>2806</v>
+        <v>6185</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>23</v>
+        <v>13</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>23</v>
+        <v>13</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>23</v>
+        <v>13</v>
       </c>
       <c r="H9" s="7">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I9" s="7">
-        <v>1360</v>
+        <v>2040</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>23</v>
+        <v>13</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>23</v>
+        <v>13</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>23</v>
+        <v>13</v>
       </c>
       <c r="M9" s="7">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="N9" s="7">
-        <v>4166</v>
+        <v>8225</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>23</v>
+        <v>13</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>23</v>
+        <v>13</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>23</v>
+        <v>13</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
@@ -1094,100 +1123,100 @@
         <v>10</v>
       </c>
       <c r="C10" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D10" s="7">
-        <v>0</v>
+        <v>695</v>
       </c>
       <c r="E10" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="F10" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="F10" s="7" t="s">
-        <v>14</v>
-      </c>
       <c r="G10" s="7" t="s">
-        <v>27</v>
+        <v>13</v>
       </c>
       <c r="H10" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I10" s="7">
-        <v>0</v>
+        <v>628</v>
       </c>
       <c r="J10" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="K10" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="K10" s="7" t="s">
-        <v>14</v>
-      </c>
       <c r="L10" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="M10" s="7">
+        <v>2</v>
+      </c>
+      <c r="N10" s="7">
+        <v>1323</v>
+      </c>
+      <c r="O10" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="P10" s="7" t="s">
         <v>34</v>
       </c>
-      <c r="M10" s="7">
-        <v>0</v>
-      </c>
-      <c r="N10" s="7">
-        <v>0</v>
-      </c>
-      <c r="O10" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="P10" s="7" t="s">
-        <v>14</v>
-      </c>
       <c r="Q10" s="7" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A11" s="1"/>
       <c r="B11" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="C11" s="7">
+        <v>0</v>
+      </c>
+      <c r="D11" s="7">
+        <v>0</v>
+      </c>
+      <c r="E11" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="F11" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="C11" s="7">
-        <v>4</v>
-      </c>
-      <c r="D11" s="7">
-        <v>2687</v>
-      </c>
-      <c r="E11" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="F11" s="7" t="s">
-        <v>30</v>
-      </c>
       <c r="G11" s="7" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="H11" s="7">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I11" s="7">
-        <v>1811</v>
+        <v>0</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="K11" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="L11" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="M11" s="7">
+        <v>0</v>
+      </c>
+      <c r="N11" s="7">
+        <v>0</v>
+      </c>
+      <c r="O11" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="P11" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="Q11" s="7" t="s">
         <v>35</v>
-      </c>
-      <c r="L11" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="M11" s="7">
-        <v>7</v>
-      </c>
-      <c r="N11" s="7">
-        <v>4498</v>
-      </c>
-      <c r="O11" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="P11" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="Q11" s="7" t="s">
-        <v>23</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -1196,150 +1225,150 @@
         <v>3</v>
       </c>
       <c r="C12" s="7">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="D12" s="7">
-        <v>2687</v>
+        <v>695</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>23</v>
+        <v>13</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>23</v>
+        <v>13</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>23</v>
+        <v>13</v>
       </c>
       <c r="H12" s="7">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I12" s="7">
-        <v>1811</v>
+        <v>628</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>23</v>
+        <v>13</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>23</v>
+        <v>13</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>23</v>
+        <v>13</v>
       </c>
       <c r="M12" s="7">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="N12" s="7">
-        <v>4498</v>
+        <v>1323</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>23</v>
+        <v>13</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>23</v>
+        <v>13</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>23</v>
+        <v>13</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
-        <v>3</v>
+        <v>36</v>
       </c>
       <c r="B13" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C13" s="7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D13" s="7">
-        <v>726</v>
+        <v>1992</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>36</v>
+        <v>11</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>12</v>
+        <v>25</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>37</v>
+        <v>13</v>
       </c>
       <c r="H13" s="7">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="I13" s="7">
-        <v>0</v>
+        <v>1811</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>14</v>
+        <v>25</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>38</v>
+        <v>13</v>
       </c>
       <c r="M13" s="7">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="N13" s="7">
-        <v>726</v>
+        <v>3803</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>39</v>
+        <v>11</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>40</v>
+        <v>13</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A14" s="1"/>
       <c r="B14" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="C14" s="7">
+        <v>0</v>
+      </c>
+      <c r="D14" s="7">
+        <v>0</v>
+      </c>
+      <c r="E14" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="F14" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="C14" s="7">
-        <v>13</v>
-      </c>
-      <c r="D14" s="7">
-        <v>8873</v>
-      </c>
-      <c r="E14" s="7" t="s">
-        <v>41</v>
-      </c>
-      <c r="F14" s="7" t="s">
-        <v>42</v>
-      </c>
       <c r="G14" s="7" t="s">
-        <v>21</v>
+        <v>30</v>
       </c>
       <c r="H14" s="7">
-        <v>12</v>
+        <v>0</v>
       </c>
       <c r="I14" s="7">
-        <v>7275</v>
+        <v>0</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>43</v>
+        <v>18</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="M14" s="7">
-        <v>25</v>
+        <v>0</v>
       </c>
       <c r="N14" s="7">
-        <v>16148</v>
+        <v>0</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>44</v>
+        <v>17</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>45</v>
+        <v>18</v>
       </c>
       <c r="Q14" s="7" t="s">
         <v>21</v>
@@ -1351,55 +1380,216 @@
         <v>3</v>
       </c>
       <c r="C15" s="7">
+        <v>3</v>
+      </c>
+      <c r="D15" s="7">
+        <v>1992</v>
+      </c>
+      <c r="E15" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="F15" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="G15" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="H15" s="7">
+        <v>3</v>
+      </c>
+      <c r="I15" s="7">
+        <v>1811</v>
+      </c>
+      <c r="J15" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="K15" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="L15" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="M15" s="7">
+        <v>6</v>
+      </c>
+      <c r="N15" s="7">
+        <v>3803</v>
+      </c>
+      <c r="O15" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="P15" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="Q15" s="7" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="16" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A16" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B16" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C16" s="7">
+        <v>13</v>
+      </c>
+      <c r="D16" s="7">
+        <v>8873</v>
+      </c>
+      <c r="E16" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="F16" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="G16" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="H16" s="7">
+        <v>12</v>
+      </c>
+      <c r="I16" s="7">
+        <v>7275</v>
+      </c>
+      <c r="J16" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="K16" s="7" t="s">
+        <v>39</v>
+      </c>
+      <c r="L16" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="M16" s="7">
+        <v>25</v>
+      </c>
+      <c r="N16" s="7">
+        <v>16148</v>
+      </c>
+      <c r="O16" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="P16" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="Q16" s="7" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="17" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A17" s="1"/>
+      <c r="B17" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="C17" s="7">
+        <v>1</v>
+      </c>
+      <c r="D17" s="7">
+        <v>726</v>
+      </c>
+      <c r="E17" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="F17" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="G17" s="7" t="s">
+        <v>43</v>
+      </c>
+      <c r="H17" s="7">
+        <v>0</v>
+      </c>
+      <c r="I17" s="7">
+        <v>0</v>
+      </c>
+      <c r="J17" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="K17" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="L17" s="7" t="s">
+        <v>44</v>
+      </c>
+      <c r="M17" s="7">
+        <v>1</v>
+      </c>
+      <c r="N17" s="7">
+        <v>726</v>
+      </c>
+      <c r="O17" s="7" t="s">
+        <v>45</v>
+      </c>
+      <c r="P17" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="Q17" s="7" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="18" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A18" s="1"/>
+      <c r="B18" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C18" s="7">
         <v>14</v>
       </c>
-      <c r="D15" s="7">
+      <c r="D18" s="7">
         <v>9599</v>
       </c>
-      <c r="E15" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="F15" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="G15" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="H15" s="7">
+      <c r="E18" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="F18" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="G18" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="H18" s="7">
         <v>12</v>
       </c>
-      <c r="I15" s="7">
+      <c r="I18" s="7">
         <v>7275</v>
       </c>
-      <c r="J15" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="K15" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="L15" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="M15" s="7">
+      <c r="J18" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="K18" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="L18" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="M18" s="7">
         <v>26</v>
       </c>
-      <c r="N15" s="7">
+      <c r="N18" s="7">
         <v>16874</v>
       </c>
-      <c r="O15" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="P15" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="Q15" s="7" t="s">
-        <v>23</v>
+      <c r="O18" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="P18" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="Q18" s="7" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="19" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A19" t="s">
+        <v>47</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="8">
+  <mergeCells count="9">
     <mergeCell ref="A10:A12"/>
     <mergeCell ref="A13:A15"/>
+    <mergeCell ref="A16:A18"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="C1:G1"/>
     <mergeCell ref="H1:L1"/>
@@ -1412,8 +1602,8 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{047AFF1B-97DC-4FB3-BDBA-94891A3E157C}">
-  <dimension ref="A1:Q15"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5F582638-D2B0-474A-83B2-E5E778634601}">
+  <dimension ref="A1:Q19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -1429,7 +1619,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -1530,100 +1720,100 @@
         <v>10</v>
       </c>
       <c r="C4" s="7">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="D4" s="7">
-        <v>0</v>
+        <v>4576</v>
       </c>
       <c r="E4" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="F4" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="G4" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="H4" s="7">
+        <v>1</v>
+      </c>
+      <c r="I4" s="7">
+        <v>731</v>
+      </c>
+      <c r="J4" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="K4" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="F4" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="G4" s="7" t="s">
-        <v>29</v>
-      </c>
-      <c r="H4" s="7">
-        <v>0</v>
-      </c>
-      <c r="I4" s="7">
-        <v>0</v>
-      </c>
-      <c r="J4" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="K4" s="7" t="s">
-        <v>14</v>
-      </c>
       <c r="L4" s="7" t="s">
-        <v>34</v>
+        <v>13</v>
       </c>
       <c r="M4" s="7">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="N4" s="7">
-        <v>0</v>
+        <v>5307</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>14</v>
+        <v>49</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>47</v>
+        <v>13</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A5" s="1"/>
       <c r="B5" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="C5" s="7">
+        <v>0</v>
+      </c>
+      <c r="D5" s="7">
+        <v>0</v>
+      </c>
+      <c r="E5" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="F5" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="C5" s="7">
-        <v>6</v>
-      </c>
-      <c r="D5" s="7">
-        <v>4576</v>
-      </c>
-      <c r="E5" s="7" t="s">
+      <c r="G5" s="7" t="s">
         <v>21</v>
       </c>
-      <c r="F5" s="7" t="s">
-        <v>32</v>
-      </c>
-      <c r="G5" s="7" t="s">
-        <v>23</v>
-      </c>
       <c r="H5" s="7">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I5" s="7">
-        <v>1877</v>
+        <v>0</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>35</v>
+        <v>18</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="M5" s="7">
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="N5" s="7">
-        <v>6453</v>
+        <v>0</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>48</v>
+        <v>18</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>23</v>
+        <v>50</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -1638,48 +1828,48 @@
         <v>4576</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>23</v>
+        <v>13</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>23</v>
+        <v>13</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>23</v>
+        <v>13</v>
       </c>
       <c r="H6" s="7">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I6" s="7">
-        <v>1877</v>
+        <v>731</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>23</v>
+        <v>13</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>23</v>
+        <v>13</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>23</v>
+        <v>13</v>
       </c>
       <c r="M6" s="7">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="N6" s="7">
-        <v>6453</v>
+        <v>5307</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>23</v>
+        <v>13</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>23</v>
+        <v>13</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>23</v>
+        <v>13</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="B7" s="5" t="s">
         <v>10</v>
@@ -1687,98 +1877,94 @@
       <c r="C7" s="7">
         <v>0</v>
       </c>
-      <c r="D7" s="7">
-        <v>0</v>
-      </c>
+      <c r="D7" s="7"/>
       <c r="E7" s="7" t="s">
-        <v>12</v>
+        <v>51</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>14</v>
+        <v>51</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="H7" s="7">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="I7" s="7">
-        <v>0</v>
+        <v>2311</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>14</v>
+        <v>52</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>50</v>
+        <v>13</v>
       </c>
       <c r="M7" s="7">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="N7" s="7">
-        <v>0</v>
+        <v>2311</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>14</v>
+        <v>52</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>29</v>
+        <v>13</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A8" s="1"/>
       <c r="B8" s="5" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="C8" s="7">
-        <v>1</v>
-      </c>
-      <c r="D8" s="7">
-        <v>887</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="D8" s="7"/>
       <c r="E8" s="7" t="s">
-        <v>21</v>
+        <v>51</v>
       </c>
       <c r="F8" s="7" t="s">
         <v>51</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>23</v>
+        <v>51</v>
       </c>
       <c r="H8" s="7">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="I8" s="7">
-        <v>3308</v>
+        <v>0</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>52</v>
+        <v>18</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>23</v>
+        <v>53</v>
       </c>
       <c r="M8" s="7">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="N8" s="7">
-        <v>4194</v>
+        <v>0</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>32</v>
+        <v>18</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>23</v>
+        <v>53</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -1787,49 +1973,47 @@
         <v>3</v>
       </c>
       <c r="C9" s="7">
-        <v>1</v>
-      </c>
-      <c r="D9" s="7">
-        <v>887</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="D9" s="7"/>
       <c r="E9" s="7" t="s">
-        <v>23</v>
+        <v>51</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>23</v>
+        <v>51</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>23</v>
+        <v>51</v>
       </c>
       <c r="H9" s="7">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="I9" s="7">
-        <v>3308</v>
+        <v>2311</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>23</v>
+        <v>13</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>23</v>
+        <v>13</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>23</v>
+        <v>13</v>
       </c>
       <c r="M9" s="7">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="N9" s="7">
-        <v>4194</v>
+        <v>2311</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>23</v>
+        <v>13</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>23</v>
+        <v>13</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>23</v>
+        <v>13</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
@@ -1840,100 +2024,100 @@
         <v>10</v>
       </c>
       <c r="C10" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D10" s="7">
-        <v>0</v>
+        <v>887</v>
       </c>
       <c r="E10" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="F10" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="F10" s="7" t="s">
+      <c r="G10" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="H10" s="7">
+        <v>4</v>
+      </c>
+      <c r="I10" s="7">
+        <v>2844</v>
+      </c>
+      <c r="J10" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="K10" s="7" t="s">
+        <v>52</v>
+      </c>
+      <c r="L10" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="M10" s="7">
+        <v>5</v>
+      </c>
+      <c r="N10" s="7">
+        <v>3731</v>
+      </c>
+      <c r="O10" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="P10" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="G10" s="7" t="s">
-        <v>49</v>
-      </c>
-      <c r="H10" s="7">
-        <v>1</v>
-      </c>
-      <c r="I10" s="7">
-        <v>678</v>
-      </c>
-      <c r="J10" s="7" t="s">
-        <v>53</v>
-      </c>
-      <c r="K10" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="L10" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="M10" s="7">
-        <v>1</v>
-      </c>
-      <c r="N10" s="7">
-        <v>678</v>
-      </c>
-      <c r="O10" s="7" t="s">
-        <v>54</v>
-      </c>
-      <c r="P10" s="7" t="s">
-        <v>12</v>
-      </c>
       <c r="Q10" s="7" t="s">
-        <v>21</v>
+        <v>13</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A11" s="1"/>
       <c r="B11" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="C11" s="7">
+        <v>0</v>
+      </c>
+      <c r="D11" s="7">
+        <v>0</v>
+      </c>
+      <c r="E11" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="F11" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="C11" s="7">
-        <v>1</v>
-      </c>
-      <c r="D11" s="7">
-        <v>607</v>
-      </c>
-      <c r="E11" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="F11" s="7" t="s">
-        <v>51</v>
-      </c>
       <c r="G11" s="7" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="H11" s="7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I11" s="7">
-        <v>701</v>
+        <v>0</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>55</v>
+        <v>17</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>21</v>
+        <v>53</v>
       </c>
       <c r="M11" s="7">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="N11" s="7">
-        <v>1308</v>
+        <v>0</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>56</v>
+        <v>17</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -1945,150 +2129,150 @@
         <v>1</v>
       </c>
       <c r="D12" s="7">
-        <v>607</v>
+        <v>887</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>23</v>
+        <v>13</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>23</v>
+        <v>13</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>23</v>
+        <v>13</v>
       </c>
       <c r="H12" s="7">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="I12" s="7">
-        <v>1379</v>
+        <v>2844</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>23</v>
+        <v>13</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>23</v>
+        <v>13</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>23</v>
+        <v>13</v>
       </c>
       <c r="M12" s="7">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="N12" s="7">
-        <v>1986</v>
+        <v>3731</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>23</v>
+        <v>13</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>23</v>
+        <v>13</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>23</v>
+        <v>13</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
-        <v>3</v>
+        <v>36</v>
       </c>
       <c r="B13" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C13" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D13" s="7">
-        <v>0</v>
+        <v>607</v>
       </c>
       <c r="E13" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="F13" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="F13" s="7" t="s">
-        <v>14</v>
-      </c>
       <c r="G13" s="7" t="s">
-        <v>57</v>
+        <v>13</v>
       </c>
       <c r="H13" s="7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I13" s="7">
-        <v>678</v>
+        <v>0</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>58</v>
+        <v>17</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>59</v>
+        <v>19</v>
       </c>
       <c r="M13" s="7">
         <v>1</v>
       </c>
       <c r="N13" s="7">
-        <v>678</v>
+        <v>607</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>60</v>
+        <v>54</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>61</v>
+        <v>11</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A14" s="1"/>
       <c r="B14" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="C14" s="7">
+        <v>0</v>
+      </c>
+      <c r="D14" s="7">
+        <v>0</v>
+      </c>
+      <c r="E14" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="F14" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="C14" s="7">
-        <v>8</v>
-      </c>
-      <c r="D14" s="7">
-        <v>6070</v>
-      </c>
-      <c r="E14" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="F14" s="7" t="s">
-        <v>62</v>
-      </c>
       <c r="G14" s="7" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="H14" s="7">
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="I14" s="7">
-        <v>5886</v>
+        <v>678</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>63</v>
+        <v>11</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>64</v>
+        <v>12</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>21</v>
+        <v>13</v>
       </c>
       <c r="M14" s="7">
-        <v>17</v>
+        <v>1</v>
       </c>
       <c r="N14" s="7">
-        <v>11956</v>
+        <v>678</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>65</v>
+        <v>55</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>66</v>
+        <v>17</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>21</v>
+        <v>11</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -2097,55 +2281,216 @@
         <v>3</v>
       </c>
       <c r="C15" s="7">
+        <v>1</v>
+      </c>
+      <c r="D15" s="7">
+        <v>607</v>
+      </c>
+      <c r="E15" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="F15" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="G15" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="H15" s="7">
+        <v>1</v>
+      </c>
+      <c r="I15" s="7">
+        <v>678</v>
+      </c>
+      <c r="J15" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="K15" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="L15" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="M15" s="7">
+        <v>2</v>
+      </c>
+      <c r="N15" s="7">
+        <v>1285</v>
+      </c>
+      <c r="O15" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="P15" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="Q15" s="7" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="16" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A16" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B16" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C16" s="7">
         <v>8</v>
       </c>
-      <c r="D15" s="7">
+      <c r="D16" s="7">
         <v>6070</v>
       </c>
-      <c r="E15" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="F15" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="G15" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="H15" s="7">
+      <c r="E16" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="F16" s="7" t="s">
+        <v>56</v>
+      </c>
+      <c r="G16" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="H16" s="7">
+        <v>9</v>
+      </c>
+      <c r="I16" s="7">
+        <v>5886</v>
+      </c>
+      <c r="J16" s="7" t="s">
+        <v>57</v>
+      </c>
+      <c r="K16" s="7" t="s">
+        <v>58</v>
+      </c>
+      <c r="L16" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="M16" s="7">
+        <v>17</v>
+      </c>
+      <c r="N16" s="7">
+        <v>11956</v>
+      </c>
+      <c r="O16" s="7" t="s">
+        <v>59</v>
+      </c>
+      <c r="P16" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="Q16" s="7" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="17" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A17" s="1"/>
+      <c r="B17" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="C17" s="7">
+        <v>0</v>
+      </c>
+      <c r="D17" s="7">
+        <v>0</v>
+      </c>
+      <c r="E17" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="F17" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="G17" s="7" t="s">
+        <v>61</v>
+      </c>
+      <c r="H17" s="7">
+        <v>1</v>
+      </c>
+      <c r="I17" s="7">
+        <v>678</v>
+      </c>
+      <c r="J17" s="7" t="s">
+        <v>62</v>
+      </c>
+      <c r="K17" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="L17" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="M17" s="7">
+        <v>1</v>
+      </c>
+      <c r="N17" s="7">
+        <v>678</v>
+      </c>
+      <c r="O17" s="7" t="s">
+        <v>64</v>
+      </c>
+      <c r="P17" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="Q17" s="7" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="18" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A18" s="1"/>
+      <c r="B18" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C18" s="7">
+        <v>8</v>
+      </c>
+      <c r="D18" s="7">
+        <v>6070</v>
+      </c>
+      <c r="E18" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="F18" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="G18" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="H18" s="7">
         <v>10</v>
       </c>
-      <c r="I15" s="7">
+      <c r="I18" s="7">
         <v>6564</v>
       </c>
-      <c r="J15" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="K15" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="L15" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="M15" s="7">
+      <c r="J18" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="K18" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="L18" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="M18" s="7">
         <v>18</v>
       </c>
-      <c r="N15" s="7">
+      <c r="N18" s="7">
         <v>12634</v>
       </c>
-      <c r="O15" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="P15" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="Q15" s="7" t="s">
-        <v>23</v>
+      <c r="O18" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="P18" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="Q18" s="7" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="19" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A19" t="s">
+        <v>47</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="8">
+  <mergeCells count="9">
     <mergeCell ref="A10:A12"/>
     <mergeCell ref="A13:A15"/>
+    <mergeCell ref="A16:A18"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="C1:G1"/>
     <mergeCell ref="H1:L1"/>
@@ -2158,8 +2503,8 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{469A157B-4F54-4B78-B697-C9F444C5E10B}">
-  <dimension ref="A1:Q15"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7DD1D309-10DC-4D13-A4F3-B245B4D97318}">
+  <dimension ref="A1:Q19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -2175,7 +2520,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -2276,19 +2621,19 @@
         <v>10</v>
       </c>
       <c r="C4" s="7">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="D4" s="7">
-        <v>0</v>
+        <v>1928</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>14</v>
+        <v>25</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>34</v>
+        <v>13</v>
       </c>
       <c r="H4" s="7">
         <v>1</v>
@@ -2297,49 +2642,49 @@
         <v>455</v>
       </c>
       <c r="J4" s="7" t="s">
+        <v>67</v>
+      </c>
+      <c r="K4" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="L4" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="M4" s="7">
+        <v>4</v>
+      </c>
+      <c r="N4" s="7">
+        <v>2382</v>
+      </c>
+      <c r="O4" s="7" t="s">
         <v>68</v>
       </c>
-      <c r="K4" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="L4" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="M4" s="7">
-        <v>1</v>
-      </c>
-      <c r="N4" s="7">
-        <v>455</v>
-      </c>
-      <c r="O4" s="7" t="s">
+      <c r="P4" s="7" t="s">
         <v>69</v>
       </c>
-      <c r="P4" s="7" t="s">
-        <v>12</v>
-      </c>
       <c r="Q4" s="7" t="s">
-        <v>70</v>
+        <v>11</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A5" s="1"/>
       <c r="B5" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="C5" s="7">
+        <v>0</v>
+      </c>
+      <c r="D5" s="7">
+        <v>0</v>
+      </c>
+      <c r="E5" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="F5" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="C5" s="7">
-        <v>3</v>
-      </c>
-      <c r="D5" s="7">
-        <v>1928</v>
-      </c>
-      <c r="E5" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="F5" s="7" t="s">
-        <v>35</v>
-      </c>
       <c r="G5" s="7" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="H5" s="7">
         <v>1</v>
@@ -2348,28 +2693,28 @@
         <v>455</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>21</v>
+        <v>11</v>
       </c>
       <c r="M5" s="7">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="N5" s="7">
-        <v>2382</v>
+        <v>455</v>
       </c>
       <c r="O5" s="7" t="s">
+        <v>70</v>
+      </c>
+      <c r="P5" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="Q5" s="7" t="s">
         <v>71</v>
-      </c>
-      <c r="P5" s="7" t="s">
-        <v>72</v>
-      </c>
-      <c r="Q5" s="7" t="s">
-        <v>21</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -2384,13 +2729,13 @@
         <v>1928</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>23</v>
+        <v>13</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>23</v>
+        <v>13</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>23</v>
+        <v>13</v>
       </c>
       <c r="H6" s="7">
         <v>2</v>
@@ -2399,13 +2744,13 @@
         <v>910</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>23</v>
+        <v>13</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>23</v>
+        <v>13</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>23</v>
+        <v>13</v>
       </c>
       <c r="M6" s="7">
         <v>5</v>
@@ -2414,117 +2759,117 @@
         <v>2837</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>23</v>
+        <v>13</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>23</v>
+        <v>13</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>23</v>
+        <v>13</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="B7" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C7" s="7">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="D7" s="7">
-        <v>0</v>
+        <v>2209</v>
       </c>
       <c r="E7" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="F7" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="G7" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="H7" s="7">
+        <v>1</v>
+      </c>
+      <c r="I7" s="7">
+        <v>705</v>
+      </c>
+      <c r="J7" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="K7" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="F7" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="G7" s="7" t="s">
-        <v>27</v>
-      </c>
-      <c r="H7" s="7">
-        <v>0</v>
-      </c>
-      <c r="I7" s="7">
-        <v>0</v>
-      </c>
-      <c r="J7" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="K7" s="7" t="s">
-        <v>14</v>
-      </c>
       <c r="L7" s="7" t="s">
-        <v>49</v>
+        <v>13</v>
       </c>
       <c r="M7" s="7">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="N7" s="7">
-        <v>0</v>
+        <v>2915</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>14</v>
+        <v>52</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>50</v>
+        <v>13</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A8" s="1"/>
       <c r="B8" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="C8" s="7">
+        <v>0</v>
+      </c>
+      <c r="D8" s="7">
+        <v>0</v>
+      </c>
+      <c r="E8" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="F8" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="C8" s="7">
-        <v>4</v>
-      </c>
-      <c r="D8" s="7">
-        <v>2803</v>
-      </c>
-      <c r="E8" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="F8" s="7" t="s">
+      <c r="G8" s="7" t="s">
         <v>30</v>
       </c>
-      <c r="G8" s="7" t="s">
-        <v>23</v>
-      </c>
       <c r="H8" s="7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I8" s="7">
-        <v>705</v>
+        <v>0</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>51</v>
+        <v>18</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="M8" s="7">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="N8" s="7">
-        <v>3508</v>
+        <v>0</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>52</v>
+        <v>18</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>23</v>
+        <v>53</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -2533,19 +2878,19 @@
         <v>3</v>
       </c>
       <c r="C9" s="7">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D9" s="7">
-        <v>2803</v>
+        <v>2209</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>23</v>
+        <v>13</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>23</v>
+        <v>13</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>23</v>
+        <v>13</v>
       </c>
       <c r="H9" s="7">
         <v>1</v>
@@ -2554,28 +2899,28 @@
         <v>705</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>23</v>
+        <v>13</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>23</v>
+        <v>13</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>23</v>
+        <v>13</v>
       </c>
       <c r="M9" s="7">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="N9" s="7">
-        <v>3508</v>
+        <v>2915</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>23</v>
+        <v>13</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>23</v>
+        <v>13</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>23</v>
+        <v>13</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
@@ -2586,100 +2931,96 @@
         <v>10</v>
       </c>
       <c r="C10" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D10" s="7">
-        <v>0</v>
+        <v>593</v>
       </c>
       <c r="E10" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="F10" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="F10" s="7" t="s">
-        <v>14</v>
-      </c>
       <c r="G10" s="7" t="s">
-        <v>28</v>
+        <v>13</v>
       </c>
       <c r="H10" s="7">
         <v>0</v>
       </c>
-      <c r="I10" s="7">
-        <v>0</v>
-      </c>
+      <c r="I10" s="7"/>
       <c r="J10" s="7" t="s">
+        <v>51</v>
+      </c>
+      <c r="K10" s="7" t="s">
+        <v>51</v>
+      </c>
+      <c r="L10" s="7" t="s">
+        <v>51</v>
+      </c>
+      <c r="M10" s="7">
+        <v>1</v>
+      </c>
+      <c r="N10" s="7">
+        <v>593</v>
+      </c>
+      <c r="O10" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="P10" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="K10" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="L10" s="7" t="s">
-        <v>49</v>
-      </c>
-      <c r="M10" s="7">
-        <v>0</v>
-      </c>
-      <c r="N10" s="7">
-        <v>0</v>
-      </c>
-      <c r="O10" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="P10" s="7" t="s">
-        <v>14</v>
-      </c>
       <c r="Q10" s="7" t="s">
-        <v>34</v>
+        <v>13</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A11" s="1"/>
       <c r="B11" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="C11" s="7">
+        <v>0</v>
+      </c>
+      <c r="D11" s="7">
+        <v>0</v>
+      </c>
+      <c r="E11" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="F11" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="C11" s="7">
-        <v>2</v>
-      </c>
-      <c r="D11" s="7">
-        <v>1479</v>
-      </c>
-      <c r="E11" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="F11" s="7" t="s">
-        <v>31</v>
-      </c>
       <c r="G11" s="7" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="H11" s="7">
-        <v>1</v>
-      </c>
-      <c r="I11" s="7">
-        <v>765</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I11" s="7"/>
       <c r="J11" s="7" t="s">
-        <v>21</v>
+        <v>51</v>
       </c>
       <c r="K11" s="7" t="s">
         <v>51</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>23</v>
+        <v>51</v>
       </c>
       <c r="M11" s="7">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="N11" s="7">
-        <v>2244</v>
+        <v>0</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>35</v>
+        <v>18</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -2688,153 +3029,151 @@
         <v>3</v>
       </c>
       <c r="C12" s="7">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D12" s="7">
-        <v>1479</v>
+        <v>593</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>23</v>
+        <v>13</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>23</v>
+        <v>13</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>23</v>
+        <v>13</v>
       </c>
       <c r="H12" s="7">
-        <v>1</v>
-      </c>
-      <c r="I12" s="7">
-        <v>765</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I12" s="7"/>
       <c r="J12" s="7" t="s">
-        <v>23</v>
+        <v>51</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>23</v>
+        <v>51</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>23</v>
+        <v>51</v>
       </c>
       <c r="M12" s="7">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="N12" s="7">
-        <v>2244</v>
+        <v>593</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>23</v>
+        <v>13</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>23</v>
+        <v>13</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>23</v>
+        <v>13</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
-        <v>3</v>
+        <v>36</v>
       </c>
       <c r="B13" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C13" s="7">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="D13" s="7">
-        <v>0</v>
+        <v>1479</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>14</v>
+        <v>34</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>47</v>
+        <v>13</v>
       </c>
       <c r="H13" s="7">
         <v>1</v>
       </c>
       <c r="I13" s="7">
-        <v>455</v>
+        <v>765</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>73</v>
+        <v>11</v>
       </c>
       <c r="K13" s="7" t="s">
         <v>12</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>21</v>
+        <v>13</v>
       </c>
       <c r="M13" s="7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="N13" s="7">
-        <v>455</v>
+        <v>2244</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>74</v>
+        <v>11</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>12</v>
+        <v>25</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>75</v>
+        <v>13</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A14" s="1"/>
       <c r="B14" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="C14" s="7">
+        <v>0</v>
+      </c>
+      <c r="D14" s="7">
+        <v>0</v>
+      </c>
+      <c r="E14" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="F14" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="C14" s="7">
-        <v>9</v>
-      </c>
-      <c r="D14" s="7">
-        <v>6210</v>
-      </c>
-      <c r="E14" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="F14" s="7" t="s">
-        <v>48</v>
-      </c>
       <c r="G14" s="7" t="s">
-        <v>23</v>
+        <v>35</v>
       </c>
       <c r="H14" s="7">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I14" s="7">
-        <v>1925</v>
+        <v>0</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>76</v>
+        <v>17</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="M14" s="7">
-        <v>12</v>
+        <v>0</v>
       </c>
       <c r="N14" s="7">
-        <v>8135</v>
+        <v>0</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>77</v>
+        <v>17</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>78</v>
+        <v>18</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>21</v>
+        <v>30</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -2843,55 +3182,216 @@
         <v>3</v>
       </c>
       <c r="C15" s="7">
+        <v>2</v>
+      </c>
+      <c r="D15" s="7">
+        <v>1479</v>
+      </c>
+      <c r="E15" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="F15" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="G15" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="H15" s="7">
+        <v>1</v>
+      </c>
+      <c r="I15" s="7">
+        <v>765</v>
+      </c>
+      <c r="J15" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="K15" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="L15" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="M15" s="7">
+        <v>3</v>
+      </c>
+      <c r="N15" s="7">
+        <v>2244</v>
+      </c>
+      <c r="O15" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="P15" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="Q15" s="7" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="16" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A16" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B16" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C16" s="7">
         <v>9</v>
       </c>
-      <c r="D15" s="7">
+      <c r="D16" s="7">
         <v>6210</v>
       </c>
-      <c r="E15" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="F15" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="G15" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="H15" s="7">
+      <c r="E16" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="F16" s="7" t="s">
+        <v>72</v>
+      </c>
+      <c r="G16" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="H16" s="7">
+        <v>3</v>
+      </c>
+      <c r="I16" s="7">
+        <v>1925</v>
+      </c>
+      <c r="J16" s="7" t="s">
+        <v>73</v>
+      </c>
+      <c r="K16" s="7" t="s">
+        <v>74</v>
+      </c>
+      <c r="L16" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="M16" s="7">
+        <v>12</v>
+      </c>
+      <c r="N16" s="7">
+        <v>8135</v>
+      </c>
+      <c r="O16" s="7" t="s">
+        <v>75</v>
+      </c>
+      <c r="P16" s="7" t="s">
+        <v>76</v>
+      </c>
+      <c r="Q16" s="7" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="17" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A17" s="1"/>
+      <c r="B17" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="C17" s="7">
+        <v>0</v>
+      </c>
+      <c r="D17" s="7">
+        <v>0</v>
+      </c>
+      <c r="E17" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="F17" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="G17" s="7" t="s">
+        <v>77</v>
+      </c>
+      <c r="H17" s="7">
+        <v>1</v>
+      </c>
+      <c r="I17" s="7">
+        <v>455</v>
+      </c>
+      <c r="J17" s="7" t="s">
+        <v>78</v>
+      </c>
+      <c r="K17" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="L17" s="7" t="s">
+        <v>79</v>
+      </c>
+      <c r="M17" s="7">
+        <v>1</v>
+      </c>
+      <c r="N17" s="7">
+        <v>455</v>
+      </c>
+      <c r="O17" s="7" t="s">
+        <v>80</v>
+      </c>
+      <c r="P17" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="Q17" s="7" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="18" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A18" s="1"/>
+      <c r="B18" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C18" s="7">
+        <v>9</v>
+      </c>
+      <c r="D18" s="7">
+        <v>6210</v>
+      </c>
+      <c r="E18" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="F18" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="G18" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="H18" s="7">
         <v>4</v>
       </c>
-      <c r="I15" s="7">
+      <c r="I18" s="7">
         <v>2380</v>
       </c>
-      <c r="J15" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="K15" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="L15" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="M15" s="7">
-        <v>13</v>
-      </c>
-      <c r="N15" s="7">
+      <c r="J18" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="K18" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="L18" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="M18" s="7">
+        <v>13</v>
+      </c>
+      <c r="N18" s="7">
         <v>8590</v>
       </c>
-      <c r="O15" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="P15" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="Q15" s="7" t="s">
-        <v>23</v>
+      <c r="O18" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="P18" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="Q18" s="7" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="19" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A19" t="s">
+        <v>47</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="8">
+  <mergeCells count="9">
     <mergeCell ref="A10:A12"/>
     <mergeCell ref="A13:A15"/>
+    <mergeCell ref="A16:A18"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="C1:G1"/>
     <mergeCell ref="H1:L1"/>

--- a/data/trans_orig/IP16B03-Edad-trans_orig.xlsx
+++ b/data/trans_orig/IP16B03-Edad-trans_orig.xlsx
@@ -8,14 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS_menores\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{3391D4DE-94B0-42FD-A86A-A2C2BEFDA78F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{8D590411-379E-4134-9C0F-D9FBE09973EC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{F25B0758-7972-4894-83F0-B6D8A36DF736}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{63340B8C-5BD1-4F2D-A4D3-D0FD7FFA6691}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
     <sheet name="2012" sheetId="3" r:id="rId2"/>
-    <sheet name="2015" sheetId="4" r:id="rId3"/>
+    <sheet name="2016" sheetId="4" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -112,7 +112,7 @@
     <t>88,26%</t>
   </si>
   <si>
-    <t>47,03%</t>
+    <t>44,47%</t>
   </si>
   <si>
     <t>55,59%</t>
@@ -121,13 +121,13 @@
     <t>91,17%</t>
   </si>
   <si>
-    <t>63,81%</t>
+    <t>64,53%</t>
   </si>
   <si>
     <t>11,74%</t>
   </si>
   <si>
-    <t>52,97%</t>
+    <t>55,53%</t>
   </si>
   <si>
     <t>44,41%</t>
@@ -136,7 +136,7 @@
     <t>8,83%</t>
   </si>
   <si>
-    <t>36,19%</t>
+    <t>35,47%</t>
   </si>
   <si>
     <t>8-11</t>
@@ -154,7 +154,7 @@
     <t>92,43%</t>
   </si>
   <si>
-    <t>63,35%</t>
+    <t>69,21%</t>
   </si>
   <si>
     <t>85,49%</t>
@@ -163,13 +163,13 @@
     <t>95,69%</t>
   </si>
   <si>
-    <t>82,03%</t>
+    <t>80,49%</t>
   </si>
   <si>
     <t>7,57%</t>
   </si>
   <si>
-    <t>36,65%</t>
+    <t>30,79%</t>
   </si>
   <si>
     <t>14,51%</t>
@@ -178,7 +178,7 @@
     <t>4,31%</t>
   </si>
   <si>
-    <t>17,97%</t>
+    <t>19,51%</t>
   </si>
   <si>
     <t>Fuente: Encuesta Andaluza de Salud (menores)</t>
@@ -214,13 +214,13 @@
     <t>89,67%</t>
   </si>
   <si>
-    <t>54,65%</t>
+    <t>58,41%</t>
   </si>
   <si>
     <t>94,63%</t>
   </si>
   <si>
-    <t>69,08%</t>
+    <t>75,93%</t>
   </si>
   <si>
     <t>20,75%</t>
@@ -229,16 +229,16 @@
     <t>10,33%</t>
   </si>
   <si>
-    <t>45,35%</t>
+    <t>41,59%</t>
   </si>
   <si>
     <t>5,37%</t>
   </si>
   <si>
-    <t>30,92%</t>
-  </si>
-  <si>
-    <t>Menores según si ha consumido recostituyentes recetados por el médico en 2015 (Tasa respuesta: 0,61%)</t>
+    <t>24,07%</t>
+  </si>
+  <si>
+    <t>Menores según si ha consumido recostituyentes recetados por el médico en 2016 (Tasa respuesta: 0,61%)</t>
   </si>
   <si>
     <t>50,0%</t>
@@ -247,13 +247,13 @@
     <t>83,97%</t>
   </si>
   <si>
-    <t>20,0%</t>
+    <t>26,22%</t>
   </si>
   <si>
     <t>16,03%</t>
   </si>
   <si>
-    <t>80,0%</t>
+    <t>73,78%</t>
   </si>
   <si>
     <t>81,26%</t>
@@ -268,7 +268,7 @@
     <t>94,71%</t>
   </si>
   <si>
-    <t>69,45%</t>
+    <t>75,33%</t>
   </si>
   <si>
     <t>18,74%</t>
@@ -283,7 +283,7 @@
     <t>5,29%</t>
   </si>
   <si>
-    <t>30,55%</t>
+    <t>24,67%</t>
   </si>
 </sst>
 </file>
@@ -695,7 +695,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BAA2686A-A300-4232-94BE-3F961F94C22F}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CE507D31-94CA-4C7F-9993-0D028983186C}">
   <dimension ref="A1:Q19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -1602,7 +1602,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5F582638-D2B0-474A-83B2-E5E778634601}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{91FA328D-6CBC-4CB4-9D88-503DBAFF8EDE}">
   <dimension ref="A1:Q19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2503,7 +2503,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7DD1D309-10DC-4D13-A4F3-B245B4D97318}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FE7C0238-DE33-40E3-A534-0479F96DFAB2}">
   <dimension ref="A1:Q19"/>
   <sheetViews>
     <sheetView workbookViewId="0">

--- a/data/trans_orig/IP16B03-Edad-trans_orig.xlsx
+++ b/data/trans_orig/IP16B03-Edad-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27531"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS_menores\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{8D590411-379E-4134-9C0F-D9FBE09973EC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{18C37237-EF31-42FF-9401-DD5592CAEAE2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{63340B8C-5BD1-4F2D-A4D3-D0FD7FFA6691}"/>
+    <workbookView xWindow="2688" yWindow="2688" windowWidth="17280" windowHeight="8880" xr2:uid="{42A581F7-301E-4DB3-988E-04C01DD4857C}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
@@ -38,15 +38,15 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="525" uniqueCount="82">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="525" uniqueCount="80">
   <si>
     <t>Menores según si ha consumido recostituyentes recetados por el médico en 2007 (Tasa respuesta: 1,24%)</t>
   </si>
   <si>
-    <t>Hombre</t>
-  </si>
-  <si>
-    <t>Mujer</t>
+    <t>Niña</t>
+  </si>
+  <si>
+    <t>Niño</t>
   </si>
   <si>
     <t>Total</t>
@@ -76,15 +76,15 @@
     <t>100,0%</t>
   </si>
   <si>
+    <t>69,43%</t>
+  </si>
+  <si>
+    <t>100%</t>
+  </si>
+  <si>
     <t>22,85%</t>
   </si>
   <si>
-    <t>100%</t>
-  </si>
-  <si>
-    <t>69,43%</t>
-  </si>
-  <si>
     <t>73,58%</t>
   </si>
   <si>
@@ -97,46 +97,46 @@
     <t>0%</t>
   </si>
   <si>
+    <t>30,57%</t>
+  </si>
+  <si>
     <t>77,15%</t>
   </si>
   <si>
-    <t>30,57%</t>
-  </si>
-  <si>
     <t>26,42%</t>
   </si>
   <si>
     <t>3-7</t>
   </si>
   <si>
+    <t>55,59%</t>
+  </si>
+  <si>
     <t>88,26%</t>
   </si>
   <si>
-    <t>44,47%</t>
-  </si>
-  <si>
-    <t>55,59%</t>
+    <t>53,06%</t>
   </si>
   <si>
     <t>91,17%</t>
   </si>
   <si>
-    <t>64,53%</t>
+    <t>57,46%</t>
+  </si>
+  <si>
+    <t>44,41%</t>
   </si>
   <si>
     <t>11,74%</t>
   </si>
   <si>
-    <t>55,53%</t>
-  </si>
-  <si>
-    <t>44,41%</t>
+    <t>46,94%</t>
   </si>
   <si>
     <t>8,83%</t>
   </si>
   <si>
-    <t>35,47%</t>
+    <t>42,54%</t>
   </si>
   <si>
     <t>8-11</t>
@@ -151,34 +151,34 @@
     <t>12-15</t>
   </si>
   <si>
+    <t>85,49%</t>
+  </si>
+  <si>
     <t>92,43%</t>
   </si>
   <si>
-    <t>69,21%</t>
-  </si>
-  <si>
-    <t>85,49%</t>
+    <t>67,37%</t>
   </si>
   <si>
     <t>95,69%</t>
   </si>
   <si>
-    <t>80,49%</t>
+    <t>77,5%</t>
+  </si>
+  <si>
+    <t>14,51%</t>
   </si>
   <si>
     <t>7,57%</t>
   </si>
   <si>
-    <t>30,79%</t>
-  </si>
-  <si>
-    <t>14,51%</t>
+    <t>32,63%</t>
   </si>
   <si>
     <t>4,31%</t>
   </si>
   <si>
-    <t>19,51%</t>
+    <t>22,5%</t>
   </si>
   <si>
     <t>Fuente: Encuesta Andaluza de Salud (menores)</t>
@@ -193,12 +193,12 @@
     <t>23,25%</t>
   </si>
   <si>
+    <t>63,75%</t>
+  </si>
+  <si>
     <t>—%</t>
   </si>
   <si>
-    <t>63,75%</t>
-  </si>
-  <si>
     <t>36,25%</t>
   </si>
   <si>
@@ -208,34 +208,34 @@
     <t>52,78%</t>
   </si>
   <si>
+    <t>89,67%</t>
+  </si>
+  <si>
+    <t>49,54%</t>
+  </si>
+  <si>
     <t>79,25%</t>
   </si>
   <si>
-    <t>89,67%</t>
-  </si>
-  <si>
-    <t>58,41%</t>
-  </si>
-  <si>
     <t>94,63%</t>
   </si>
   <si>
-    <t>75,93%</t>
+    <t>77,07%</t>
+  </si>
+  <si>
+    <t>10,33%</t>
+  </si>
+  <si>
+    <t>50,46%</t>
   </si>
   <si>
     <t>20,75%</t>
   </si>
   <si>
-    <t>10,33%</t>
-  </si>
-  <si>
-    <t>41,59%</t>
-  </si>
-  <si>
     <t>5,37%</t>
   </si>
   <si>
-    <t>24,07%</t>
+    <t>22,93%</t>
   </si>
   <si>
     <t>Menores según si ha consumido recostituyentes recetados por el médico en 2016 (Tasa respuesta: 0,61%)</t>
@@ -247,43 +247,37 @@
     <t>83,97%</t>
   </si>
   <si>
-    <t>26,22%</t>
+    <t>20,0%</t>
   </si>
   <si>
     <t>16,03%</t>
   </si>
   <si>
-    <t>73,78%</t>
+    <t>80,0%</t>
+  </si>
+  <si>
+    <t>80,89%</t>
   </si>
   <si>
     <t>81,26%</t>
   </si>
   <si>
-    <t>80,89%</t>
-  </si>
-  <si>
-    <t>25,0%</t>
-  </si>
-  <si>
     <t>94,71%</t>
   </si>
   <si>
-    <t>75,33%</t>
+    <t>75,74%</t>
+  </si>
+  <si>
+    <t>19,11%</t>
   </si>
   <si>
     <t>18,74%</t>
   </si>
   <si>
-    <t>19,11%</t>
-  </si>
-  <si>
-    <t>75,0%</t>
-  </si>
-  <si>
     <t>5,29%</t>
   </si>
   <si>
-    <t>24,67%</t>
+    <t>24,26%</t>
   </si>
 </sst>
 </file>
@@ -695,7 +689,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CE507D31-94CA-4C7F-9993-0D028983186C}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D17320BA-0134-493E-8EC9-E1DD8CFBCE05}">
   <dimension ref="A1:Q19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -813,10 +807,10 @@
         <v>10</v>
       </c>
       <c r="C4" s="7">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="D4" s="7">
-        <v>726</v>
+        <v>2796</v>
       </c>
       <c r="E4" s="7" t="s">
         <v>11</v>
@@ -828,10 +822,10 @@
         <v>13</v>
       </c>
       <c r="H4" s="7">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="I4" s="7">
-        <v>2796</v>
+        <v>726</v>
       </c>
       <c r="J4" s="7" t="s">
         <v>11</v>
@@ -915,25 +909,25 @@
         <v>3</v>
       </c>
       <c r="C6" s="7">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="D6" s="7">
+        <v>2796</v>
+      </c>
+      <c r="E6" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="F6" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="G6" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="H6" s="7">
+        <v>1</v>
+      </c>
+      <c r="I6" s="7">
         <v>726</v>
-      </c>
-      <c r="E6" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="F6" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="G6" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="H6" s="7">
-        <v>5</v>
-      </c>
-      <c r="I6" s="7">
-        <v>2796</v>
       </c>
       <c r="J6" s="7" t="s">
         <v>13</v>
@@ -968,34 +962,34 @@
         <v>10</v>
       </c>
       <c r="C7" s="7">
+        <v>3</v>
+      </c>
+      <c r="D7" s="7">
+        <v>2040</v>
+      </c>
+      <c r="E7" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="F7" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="G7" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="H7" s="7">
         <v>8</v>
       </c>
-      <c r="D7" s="7">
+      <c r="I7" s="7">
         <v>5459</v>
       </c>
-      <c r="E7" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="F7" s="7" t="s">
+      <c r="J7" s="7" t="s">
         <v>24</v>
-      </c>
-      <c r="G7" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="H7" s="7">
-        <v>3</v>
-      </c>
-      <c r="I7" s="7">
-        <v>2040</v>
-      </c>
-      <c r="J7" s="7" t="s">
-        <v>11</v>
       </c>
       <c r="K7" s="7" t="s">
         <v>25</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="M7" s="7">
         <v>11</v>
@@ -1019,31 +1013,31 @@
         <v>16</v>
       </c>
       <c r="C8" s="7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D8" s="7">
+        <v>0</v>
+      </c>
+      <c r="E8" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="F8" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="G8" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="H8" s="7">
+        <v>1</v>
+      </c>
+      <c r="I8" s="7">
         <v>726</v>
       </c>
-      <c r="E8" s="7" t="s">
-        <v>28</v>
-      </c>
-      <c r="F8" s="7" t="s">
-        <v>17</v>
-      </c>
-      <c r="G8" s="7" t="s">
+      <c r="J8" s="7" t="s">
         <v>29</v>
       </c>
-      <c r="H8" s="7">
-        <v>0</v>
-      </c>
-      <c r="I8" s="7">
-        <v>0</v>
-      </c>
-      <c r="J8" s="7" t="s">
-        <v>17</v>
-      </c>
       <c r="K8" s="7" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="L8" s="7" t="s">
         <v>30</v>
@@ -1070,25 +1064,25 @@
         <v>3</v>
       </c>
       <c r="C9" s="7">
+        <v>3</v>
+      </c>
+      <c r="D9" s="7">
+        <v>2040</v>
+      </c>
+      <c r="E9" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="F9" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="G9" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="H9" s="7">
         <v>9</v>
       </c>
-      <c r="D9" s="7">
+      <c r="I9" s="7">
         <v>6185</v>
-      </c>
-      <c r="E9" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="F9" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="G9" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="H9" s="7">
-        <v>3</v>
-      </c>
-      <c r="I9" s="7">
-        <v>2040</v>
       </c>
       <c r="J9" s="7" t="s">
         <v>13</v>
@@ -1126,28 +1120,28 @@
         <v>1</v>
       </c>
       <c r="D10" s="7">
+        <v>628</v>
+      </c>
+      <c r="E10" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="F10" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="G10" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="H10" s="7">
+        <v>1</v>
+      </c>
+      <c r="I10" s="7">
         <v>695</v>
       </c>
-      <c r="E10" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="F10" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="G10" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="H10" s="7">
-        <v>1</v>
-      </c>
-      <c r="I10" s="7">
-        <v>628</v>
-      </c>
       <c r="J10" s="7" t="s">
         <v>11</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="L10" s="7" t="s">
         <v>13</v>
@@ -1186,7 +1180,7 @@
         <v>18</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="H11" s="7">
         <v>0</v>
@@ -1201,7 +1195,7 @@
         <v>18</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="M11" s="7">
         <v>0</v>
@@ -1228,22 +1222,22 @@
         <v>1</v>
       </c>
       <c r="D12" s="7">
+        <v>628</v>
+      </c>
+      <c r="E12" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="F12" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="G12" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="H12" s="7">
+        <v>1</v>
+      </c>
+      <c r="I12" s="7">
         <v>695</v>
-      </c>
-      <c r="E12" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="F12" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="G12" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="H12" s="7">
-        <v>1</v>
-      </c>
-      <c r="I12" s="7">
-        <v>628</v>
       </c>
       <c r="J12" s="7" t="s">
         <v>13</v>
@@ -1281,13 +1275,13 @@
         <v>3</v>
       </c>
       <c r="D13" s="7">
-        <v>1992</v>
+        <v>1811</v>
       </c>
       <c r="E13" s="7" t="s">
         <v>11</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="G13" s="7" t="s">
         <v>13</v>
@@ -1296,13 +1290,13 @@
         <v>3</v>
       </c>
       <c r="I13" s="7">
-        <v>1811</v>
+        <v>1992</v>
       </c>
       <c r="J13" s="7" t="s">
         <v>11</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="L13" s="7" t="s">
         <v>13</v>
@@ -1341,7 +1335,7 @@
         <v>18</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="H14" s="7">
         <v>0</v>
@@ -1356,7 +1350,7 @@
         <v>18</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="M14" s="7">
         <v>0</v>
@@ -1383,7 +1377,7 @@
         <v>3</v>
       </c>
       <c r="D15" s="7">
-        <v>1992</v>
+        <v>1811</v>
       </c>
       <c r="E15" s="7" t="s">
         <v>13</v>
@@ -1398,7 +1392,7 @@
         <v>3</v>
       </c>
       <c r="I15" s="7">
-        <v>1811</v>
+        <v>1992</v>
       </c>
       <c r="J15" s="7" t="s">
         <v>13</v>
@@ -1433,34 +1427,34 @@
         <v>10</v>
       </c>
       <c r="C16" s="7">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D16" s="7">
+        <v>7275</v>
+      </c>
+      <c r="E16" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="F16" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="G16" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="H16" s="7">
+        <v>13</v>
+      </c>
+      <c r="I16" s="7">
         <v>8873</v>
       </c>
-      <c r="E16" s="7" t="s">
-        <v>37</v>
-      </c>
-      <c r="F16" s="7" t="s">
+      <c r="J16" s="7" t="s">
         <v>38</v>
-      </c>
-      <c r="G16" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="H16" s="7">
-        <v>12</v>
-      </c>
-      <c r="I16" s="7">
-        <v>7275</v>
-      </c>
-      <c r="J16" s="7" t="s">
-        <v>11</v>
       </c>
       <c r="K16" s="7" t="s">
         <v>39</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="M16" s="7">
         <v>25</v>
@@ -1484,31 +1478,31 @@
         <v>16</v>
       </c>
       <c r="C17" s="7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D17" s="7">
+        <v>0</v>
+      </c>
+      <c r="E17" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="F17" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="G17" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="H17" s="7">
+        <v>1</v>
+      </c>
+      <c r="I17" s="7">
         <v>726</v>
       </c>
-      <c r="E17" s="7" t="s">
-        <v>42</v>
-      </c>
-      <c r="F17" s="7" t="s">
-        <v>17</v>
-      </c>
-      <c r="G17" s="7" t="s">
+      <c r="J17" s="7" t="s">
         <v>43</v>
       </c>
-      <c r="H17" s="7">
-        <v>0</v>
-      </c>
-      <c r="I17" s="7">
-        <v>0</v>
-      </c>
-      <c r="J17" s="7" t="s">
-        <v>17</v>
-      </c>
       <c r="K17" s="7" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="L17" s="7" t="s">
         <v>44</v>
@@ -1535,25 +1529,25 @@
         <v>3</v>
       </c>
       <c r="C18" s="7">
+        <v>12</v>
+      </c>
+      <c r="D18" s="7">
+        <v>7275</v>
+      </c>
+      <c r="E18" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="F18" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="G18" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="H18" s="7">
         <v>14</v>
       </c>
-      <c r="D18" s="7">
+      <c r="I18" s="7">
         <v>9599</v>
-      </c>
-      <c r="E18" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="F18" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="G18" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="H18" s="7">
-        <v>12</v>
-      </c>
-      <c r="I18" s="7">
-        <v>7275</v>
       </c>
       <c r="J18" s="7" t="s">
         <v>13</v>
@@ -1602,7 +1596,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{91FA328D-6CBC-4CB4-9D88-503DBAFF8EDE}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EF725AB0-185E-4466-A429-71ABE8E947EF}">
   <dimension ref="A1:Q19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -1720,31 +1714,31 @@
         <v>10</v>
       </c>
       <c r="C4" s="7">
+        <v>1</v>
+      </c>
+      <c r="D4" s="7">
+        <v>731</v>
+      </c>
+      <c r="E4" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="F4" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="G4" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="H4" s="7">
         <v>6</v>
       </c>
-      <c r="D4" s="7">
+      <c r="I4" s="7">
         <v>4576</v>
       </c>
-      <c r="E4" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="F4" s="7" t="s">
+      <c r="J4" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="K4" s="7" t="s">
         <v>15</v>
-      </c>
-      <c r="G4" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="H4" s="7">
-        <v>1</v>
-      </c>
-      <c r="I4" s="7">
-        <v>731</v>
-      </c>
-      <c r="J4" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="K4" s="7" t="s">
-        <v>12</v>
       </c>
       <c r="L4" s="7" t="s">
         <v>13</v>
@@ -1783,7 +1777,7 @@
         <v>18</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="H5" s="7">
         <v>0</v>
@@ -1798,7 +1792,7 @@
         <v>18</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="M5" s="7">
         <v>0</v>
@@ -1822,25 +1816,25 @@
         <v>3</v>
       </c>
       <c r="C6" s="7">
+        <v>1</v>
+      </c>
+      <c r="D6" s="7">
+        <v>731</v>
+      </c>
+      <c r="E6" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="F6" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="G6" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="H6" s="7">
         <v>6</v>
       </c>
-      <c r="D6" s="7">
+      <c r="I6" s="7">
         <v>4576</v>
-      </c>
-      <c r="E6" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="F6" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="G6" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="H6" s="7">
-        <v>1</v>
-      </c>
-      <c r="I6" s="7">
-        <v>731</v>
       </c>
       <c r="J6" s="7" t="s">
         <v>13</v>
@@ -1875,32 +1869,32 @@
         <v>10</v>
       </c>
       <c r="C7" s="7">
-        <v>0</v>
-      </c>
-      <c r="D7" s="7"/>
+        <v>4</v>
+      </c>
+      <c r="D7" s="7">
+        <v>2311</v>
+      </c>
       <c r="E7" s="7" t="s">
-        <v>51</v>
+        <v>11</v>
       </c>
       <c r="F7" s="7" t="s">
         <v>51</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>51</v>
+        <v>13</v>
       </c>
       <c r="H7" s="7">
-        <v>4</v>
-      </c>
-      <c r="I7" s="7">
-        <v>2311</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I7" s="7"/>
       <c r="J7" s="7" t="s">
-        <v>11</v>
+        <v>52</v>
       </c>
       <c r="K7" s="7" t="s">
         <v>52</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>13</v>
+        <v>52</v>
       </c>
       <c r="M7" s="7">
         <v>4</v>
@@ -1912,7 +1906,7 @@
         <v>11</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="Q7" s="7" t="s">
         <v>13</v>
@@ -1926,30 +1920,30 @@
       <c r="C8" s="7">
         <v>0</v>
       </c>
-      <c r="D8" s="7"/>
+      <c r="D8" s="7">
+        <v>0</v>
+      </c>
       <c r="E8" s="7" t="s">
-        <v>51</v>
+        <v>17</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>51</v>
+        <v>18</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="H8" s="7">
         <v>0</v>
       </c>
-      <c r="I8" s="7">
-        <v>0</v>
-      </c>
+      <c r="I8" s="7"/>
       <c r="J8" s="7" t="s">
-        <v>17</v>
+        <v>52</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>18</v>
+        <v>52</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="M8" s="7">
         <v>0</v>
@@ -1973,32 +1967,32 @@
         <v>3</v>
       </c>
       <c r="C9" s="7">
-        <v>0</v>
-      </c>
-      <c r="D9" s="7"/>
+        <v>4</v>
+      </c>
+      <c r="D9" s="7">
+        <v>2311</v>
+      </c>
       <c r="E9" s="7" t="s">
-        <v>51</v>
+        <v>13</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>51</v>
+        <v>13</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>51</v>
+        <v>13</v>
       </c>
       <c r="H9" s="7">
-        <v>4</v>
-      </c>
-      <c r="I9" s="7">
-        <v>2311</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I9" s="7"/>
       <c r="J9" s="7" t="s">
-        <v>13</v>
+        <v>52</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>13</v>
+        <v>52</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>13</v>
+        <v>52</v>
       </c>
       <c r="M9" s="7">
         <v>4</v>
@@ -2024,31 +2018,31 @@
         <v>10</v>
       </c>
       <c r="C10" s="7">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="D10" s="7">
+        <v>2844</v>
+      </c>
+      <c r="E10" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="F10" s="7" t="s">
+        <v>51</v>
+      </c>
+      <c r="G10" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="H10" s="7">
+        <v>1</v>
+      </c>
+      <c r="I10" s="7">
         <v>887</v>
       </c>
-      <c r="E10" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="F10" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="G10" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="H10" s="7">
-        <v>4</v>
-      </c>
-      <c r="I10" s="7">
-        <v>2844</v>
-      </c>
       <c r="J10" s="7" t="s">
         <v>11</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>52</v>
+        <v>14</v>
       </c>
       <c r="L10" s="7" t="s">
         <v>13</v>
@@ -2063,7 +2057,7 @@
         <v>11</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="Q10" s="7" t="s">
         <v>13</v>
@@ -2087,7 +2081,7 @@
         <v>18</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>19</v>
+        <v>53</v>
       </c>
       <c r="H11" s="7">
         <v>0</v>
@@ -2102,7 +2096,7 @@
         <v>18</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>53</v>
+        <v>20</v>
       </c>
       <c r="M11" s="7">
         <v>0</v>
@@ -2117,7 +2111,7 @@
         <v>18</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -2126,25 +2120,25 @@
         <v>3</v>
       </c>
       <c r="C12" s="7">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="D12" s="7">
+        <v>2844</v>
+      </c>
+      <c r="E12" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="F12" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="G12" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="H12" s="7">
+        <v>1</v>
+      </c>
+      <c r="I12" s="7">
         <v>887</v>
-      </c>
-      <c r="E12" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="F12" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="G12" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="H12" s="7">
-        <v>4</v>
-      </c>
-      <c r="I12" s="7">
-        <v>2844</v>
       </c>
       <c r="J12" s="7" t="s">
         <v>13</v>
@@ -2179,34 +2173,34 @@
         <v>10</v>
       </c>
       <c r="C13" s="7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D13" s="7">
+        <v>0</v>
+      </c>
+      <c r="E13" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="F13" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="G13" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="H13" s="7">
+        <v>1</v>
+      </c>
+      <c r="I13" s="7">
         <v>607</v>
       </c>
-      <c r="E13" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="F13" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="G13" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="H13" s="7">
-        <v>0</v>
-      </c>
-      <c r="I13" s="7">
-        <v>0</v>
-      </c>
       <c r="J13" s="7" t="s">
-        <v>17</v>
+        <v>11</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="M13" s="7">
         <v>1</v>
@@ -2230,34 +2224,34 @@
         <v>16</v>
       </c>
       <c r="C14" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D14" s="7">
-        <v>0</v>
+        <v>678</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>17</v>
+        <v>11</v>
       </c>
       <c r="F14" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="G14" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="H14" s="7">
+        <v>0</v>
+      </c>
+      <c r="I14" s="7">
+        <v>0</v>
+      </c>
+      <c r="J14" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="K14" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="G14" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="H14" s="7">
-        <v>1</v>
-      </c>
-      <c r="I14" s="7">
-        <v>678</v>
-      </c>
-      <c r="J14" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="K14" s="7" t="s">
-        <v>12</v>
-      </c>
       <c r="L14" s="7" t="s">
-        <v>13</v>
+        <v>20</v>
       </c>
       <c r="M14" s="7">
         <v>1</v>
@@ -2284,22 +2278,22 @@
         <v>1</v>
       </c>
       <c r="D15" s="7">
+        <v>678</v>
+      </c>
+      <c r="E15" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="F15" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="G15" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="H15" s="7">
+        <v>1</v>
+      </c>
+      <c r="I15" s="7">
         <v>607</v>
-      </c>
-      <c r="E15" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="F15" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="G15" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="H15" s="7">
-        <v>1</v>
-      </c>
-      <c r="I15" s="7">
-        <v>678</v>
       </c>
       <c r="J15" s="7" t="s">
         <v>13</v>
@@ -2334,34 +2328,34 @@
         <v>10</v>
       </c>
       <c r="C16" s="7">
+        <v>9</v>
+      </c>
+      <c r="D16" s="7">
+        <v>5886</v>
+      </c>
+      <c r="E16" s="7" t="s">
+        <v>56</v>
+      </c>
+      <c r="F16" s="7" t="s">
+        <v>57</v>
+      </c>
+      <c r="G16" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="H16" s="7">
         <v>8</v>
       </c>
-      <c r="D16" s="7">
+      <c r="I16" s="7">
         <v>6070</v>
       </c>
-      <c r="E16" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="F16" s="7" t="s">
-        <v>56</v>
-      </c>
-      <c r="G16" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="H16" s="7">
-        <v>9</v>
-      </c>
-      <c r="I16" s="7">
-        <v>5886</v>
-      </c>
       <c r="J16" s="7" t="s">
-        <v>57</v>
+        <v>11</v>
       </c>
       <c r="K16" s="7" t="s">
         <v>58</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="M16" s="7">
         <v>17</v>
@@ -2385,31 +2379,31 @@
         <v>16</v>
       </c>
       <c r="C17" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D17" s="7">
-        <v>0</v>
+        <v>678</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>17</v>
+        <v>61</v>
       </c>
       <c r="F17" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="G17" s="7" t="s">
+        <v>62</v>
+      </c>
+      <c r="H17" s="7">
+        <v>0</v>
+      </c>
+      <c r="I17" s="7">
+        <v>0</v>
+      </c>
+      <c r="J17" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="K17" s="7" t="s">
         <v>18</v>
-      </c>
-      <c r="G17" s="7" t="s">
-        <v>61</v>
-      </c>
-      <c r="H17" s="7">
-        <v>1</v>
-      </c>
-      <c r="I17" s="7">
-        <v>678</v>
-      </c>
-      <c r="J17" s="7" t="s">
-        <v>62</v>
-      </c>
-      <c r="K17" s="7" t="s">
-        <v>17</v>
       </c>
       <c r="L17" s="7" t="s">
         <v>63</v>
@@ -2436,25 +2430,25 @@
         <v>3</v>
       </c>
       <c r="C18" s="7">
+        <v>10</v>
+      </c>
+      <c r="D18" s="7">
+        <v>6564</v>
+      </c>
+      <c r="E18" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="F18" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="G18" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="H18" s="7">
         <v>8</v>
       </c>
-      <c r="D18" s="7">
+      <c r="I18" s="7">
         <v>6070</v>
-      </c>
-      <c r="E18" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="F18" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="G18" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="H18" s="7">
-        <v>10</v>
-      </c>
-      <c r="I18" s="7">
-        <v>6564</v>
       </c>
       <c r="J18" s="7" t="s">
         <v>13</v>
@@ -2503,7 +2497,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FE7C0238-DE33-40E3-A534-0479F96DFAB2}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D6037911-8AC1-4620-8767-CE488D02B308}">
   <dimension ref="A1:Q19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2621,34 +2615,34 @@
         <v>10</v>
       </c>
       <c r="C4" s="7">
+        <v>1</v>
+      </c>
+      <c r="D4" s="7">
+        <v>455</v>
+      </c>
+      <c r="E4" s="7" t="s">
+        <v>67</v>
+      </c>
+      <c r="F4" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="G4" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="H4" s="7">
         <v>3</v>
       </c>
-      <c r="D4" s="7">
+      <c r="I4" s="7">
         <v>1928</v>
       </c>
-      <c r="E4" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="F4" s="7" t="s">
-        <v>25</v>
-      </c>
-      <c r="G4" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="H4" s="7">
-        <v>1</v>
-      </c>
-      <c r="I4" s="7">
-        <v>455</v>
-      </c>
       <c r="J4" s="7" t="s">
-        <v>67</v>
+        <v>11</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>17</v>
+        <v>23</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="M4" s="7">
         <v>4</v>
@@ -2672,34 +2666,34 @@
         <v>16</v>
       </c>
       <c r="C5" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D5" s="7">
-        <v>0</v>
+        <v>455</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>17</v>
+        <v>67</v>
       </c>
       <c r="F5" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="G5" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="H5" s="7">
+        <v>0</v>
+      </c>
+      <c r="I5" s="7">
+        <v>0</v>
+      </c>
+      <c r="J5" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="K5" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="G5" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="H5" s="7">
-        <v>1</v>
-      </c>
-      <c r="I5" s="7">
-        <v>455</v>
-      </c>
-      <c r="J5" s="7" t="s">
-        <v>67</v>
-      </c>
-      <c r="K5" s="7" t="s">
-        <v>17</v>
-      </c>
       <c r="L5" s="7" t="s">
-        <v>11</v>
+        <v>28</v>
       </c>
       <c r="M5" s="7">
         <v>1</v>
@@ -2723,25 +2717,25 @@
         <v>3</v>
       </c>
       <c r="C6" s="7">
+        <v>2</v>
+      </c>
+      <c r="D6" s="7">
+        <v>910</v>
+      </c>
+      <c r="E6" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="F6" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="G6" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="H6" s="7">
         <v>3</v>
       </c>
-      <c r="D6" s="7">
+      <c r="I6" s="7">
         <v>1928</v>
-      </c>
-      <c r="E6" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="F6" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="G6" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="H6" s="7">
-        <v>2</v>
-      </c>
-      <c r="I6" s="7">
-        <v>910</v>
       </c>
       <c r="J6" s="7" t="s">
         <v>13</v>
@@ -2776,31 +2770,31 @@
         <v>10</v>
       </c>
       <c r="C7" s="7">
+        <v>1</v>
+      </c>
+      <c r="D7" s="7">
+        <v>705</v>
+      </c>
+      <c r="E7" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="F7" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="G7" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="H7" s="7">
         <v>3</v>
       </c>
-      <c r="D7" s="7">
+      <c r="I7" s="7">
         <v>2209</v>
       </c>
-      <c r="E7" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="F7" s="7" t="s">
-        <v>25</v>
-      </c>
-      <c r="G7" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="H7" s="7">
-        <v>1</v>
-      </c>
-      <c r="I7" s="7">
-        <v>705</v>
-      </c>
       <c r="J7" s="7" t="s">
         <v>11</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>12</v>
+        <v>23</v>
       </c>
       <c r="L7" s="7" t="s">
         <v>13</v>
@@ -2815,7 +2809,7 @@
         <v>11</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="Q7" s="7" t="s">
         <v>13</v>
@@ -2839,7 +2833,7 @@
         <v>18</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="H8" s="7">
         <v>0</v>
@@ -2854,7 +2848,7 @@
         <v>18</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>19</v>
+        <v>28</v>
       </c>
       <c r="M8" s="7">
         <v>0</v>
@@ -2878,25 +2872,25 @@
         <v>3</v>
       </c>
       <c r="C9" s="7">
+        <v>1</v>
+      </c>
+      <c r="D9" s="7">
+        <v>705</v>
+      </c>
+      <c r="E9" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="F9" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="G9" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="H9" s="7">
         <v>3</v>
       </c>
-      <c r="D9" s="7">
+      <c r="I9" s="7">
         <v>2209</v>
-      </c>
-      <c r="E9" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="F9" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="G9" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="H9" s="7">
-        <v>1</v>
-      </c>
-      <c r="I9" s="7">
-        <v>705</v>
       </c>
       <c r="J9" s="7" t="s">
         <v>13</v>
@@ -2931,32 +2925,32 @@
         <v>10</v>
       </c>
       <c r="C10" s="7">
-        <v>1</v>
-      </c>
-      <c r="D10" s="7">
+        <v>0</v>
+      </c>
+      <c r="D10" s="7"/>
+      <c r="E10" s="7" t="s">
+        <v>52</v>
+      </c>
+      <c r="F10" s="7" t="s">
+        <v>52</v>
+      </c>
+      <c r="G10" s="7" t="s">
+        <v>52</v>
+      </c>
+      <c r="H10" s="7">
+        <v>1</v>
+      </c>
+      <c r="I10" s="7">
         <v>593</v>
       </c>
-      <c r="E10" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="F10" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="G10" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="H10" s="7">
-        <v>0</v>
-      </c>
-      <c r="I10" s="7"/>
       <c r="J10" s="7" t="s">
-        <v>51</v>
+        <v>11</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>51</v>
+        <v>14</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>51</v>
+        <v>13</v>
       </c>
       <c r="M10" s="7">
         <v>1</v>
@@ -2968,7 +2962,7 @@
         <v>11</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="Q10" s="7" t="s">
         <v>13</v>
@@ -2982,30 +2976,30 @@
       <c r="C11" s="7">
         <v>0</v>
       </c>
-      <c r="D11" s="7">
-        <v>0</v>
-      </c>
+      <c r="D11" s="7"/>
       <c r="E11" s="7" t="s">
-        <v>17</v>
+        <v>52</v>
       </c>
       <c r="F11" s="7" t="s">
+        <v>52</v>
+      </c>
+      <c r="G11" s="7" t="s">
+        <v>52</v>
+      </c>
+      <c r="H11" s="7">
+        <v>0</v>
+      </c>
+      <c r="I11" s="7">
+        <v>0</v>
+      </c>
+      <c r="J11" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="K11" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="G11" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="H11" s="7">
-        <v>0</v>
-      </c>
-      <c r="I11" s="7"/>
-      <c r="J11" s="7" t="s">
-        <v>51</v>
-      </c>
-      <c r="K11" s="7" t="s">
-        <v>51</v>
-      </c>
       <c r="L11" s="7" t="s">
-        <v>51</v>
+        <v>20</v>
       </c>
       <c r="M11" s="7">
         <v>0</v>
@@ -3020,7 +3014,7 @@
         <v>18</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -3029,32 +3023,32 @@
         <v>3</v>
       </c>
       <c r="C12" s="7">
-        <v>1</v>
-      </c>
-      <c r="D12" s="7">
+        <v>0</v>
+      </c>
+      <c r="D12" s="7"/>
+      <c r="E12" s="7" t="s">
+        <v>52</v>
+      </c>
+      <c r="F12" s="7" t="s">
+        <v>52</v>
+      </c>
+      <c r="G12" s="7" t="s">
+        <v>52</v>
+      </c>
+      <c r="H12" s="7">
+        <v>1</v>
+      </c>
+      <c r="I12" s="7">
         <v>593</v>
       </c>
-      <c r="E12" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="F12" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="G12" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="H12" s="7">
-        <v>0</v>
-      </c>
-      <c r="I12" s="7"/>
       <c r="J12" s="7" t="s">
-        <v>51</v>
+        <v>13</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>51</v>
+        <v>13</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>51</v>
+        <v>13</v>
       </c>
       <c r="M12" s="7">
         <v>1</v>
@@ -3080,31 +3074,31 @@
         <v>10</v>
       </c>
       <c r="C13" s="7">
+        <v>1</v>
+      </c>
+      <c r="D13" s="7">
+        <v>765</v>
+      </c>
+      <c r="E13" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="F13" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="G13" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="H13" s="7">
         <v>2</v>
       </c>
-      <c r="D13" s="7">
+      <c r="I13" s="7">
         <v>1479</v>
       </c>
-      <c r="E13" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="F13" s="7" t="s">
+      <c r="J13" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="K13" s="7" t="s">
         <v>34</v>
-      </c>
-      <c r="G13" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="H13" s="7">
-        <v>1</v>
-      </c>
-      <c r="I13" s="7">
-        <v>765</v>
-      </c>
-      <c r="J13" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="K13" s="7" t="s">
-        <v>12</v>
       </c>
       <c r="L13" s="7" t="s">
         <v>13</v>
@@ -3119,7 +3113,7 @@
         <v>11</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="Q13" s="7" t="s">
         <v>13</v>
@@ -3143,7 +3137,7 @@
         <v>18</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>35</v>
+        <v>20</v>
       </c>
       <c r="H14" s="7">
         <v>0</v>
@@ -3158,7 +3152,7 @@
         <v>18</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>19</v>
+        <v>35</v>
       </c>
       <c r="M14" s="7">
         <v>0</v>
@@ -3173,7 +3167,7 @@
         <v>18</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -3182,25 +3176,25 @@
         <v>3</v>
       </c>
       <c r="C15" s="7">
+        <v>1</v>
+      </c>
+      <c r="D15" s="7">
+        <v>765</v>
+      </c>
+      <c r="E15" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="F15" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="G15" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="H15" s="7">
         <v>2</v>
       </c>
-      <c r="D15" s="7">
+      <c r="I15" s="7">
         <v>1479</v>
-      </c>
-      <c r="E15" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="F15" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="G15" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="H15" s="7">
-        <v>1</v>
-      </c>
-      <c r="I15" s="7">
-        <v>765</v>
       </c>
       <c r="J15" s="7" t="s">
         <v>13</v>
@@ -3235,34 +3229,34 @@
         <v>10</v>
       </c>
       <c r="C16" s="7">
+        <v>3</v>
+      </c>
+      <c r="D16" s="7">
+        <v>1925</v>
+      </c>
+      <c r="E16" s="7" t="s">
+        <v>72</v>
+      </c>
+      <c r="F16" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="G16" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="H16" s="7">
         <v>9</v>
       </c>
-      <c r="D16" s="7">
+      <c r="I16" s="7">
         <v>6210</v>
       </c>
-      <c r="E16" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="F16" s="7" t="s">
-        <v>72</v>
-      </c>
-      <c r="G16" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="H16" s="7">
-        <v>3</v>
-      </c>
-      <c r="I16" s="7">
-        <v>1925</v>
-      </c>
       <c r="J16" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="K16" s="7" t="s">
         <v>73</v>
       </c>
-      <c r="K16" s="7" t="s">
-        <v>74</v>
-      </c>
       <c r="L16" s="7" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="M16" s="7">
         <v>12</v>
@@ -3271,10 +3265,10 @@
         <v>8135</v>
       </c>
       <c r="O16" s="7" t="s">
+        <v>74</v>
+      </c>
+      <c r="P16" s="7" t="s">
         <v>75</v>
-      </c>
-      <c r="P16" s="7" t="s">
-        <v>76</v>
       </c>
       <c r="Q16" s="7" t="s">
         <v>11</v>
@@ -3286,34 +3280,34 @@
         <v>16</v>
       </c>
       <c r="C17" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D17" s="7">
-        <v>0</v>
+        <v>455</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>17</v>
+        <v>76</v>
       </c>
       <c r="F17" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="G17" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="H17" s="7">
+        <v>0</v>
+      </c>
+      <c r="I17" s="7">
+        <v>0</v>
+      </c>
+      <c r="J17" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="K17" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="G17" s="7" t="s">
+      <c r="L17" s="7" t="s">
         <v>77</v>
-      </c>
-      <c r="H17" s="7">
-        <v>1</v>
-      </c>
-      <c r="I17" s="7">
-        <v>455</v>
-      </c>
-      <c r="J17" s="7" t="s">
-        <v>78</v>
-      </c>
-      <c r="K17" s="7" t="s">
-        <v>17</v>
-      </c>
-      <c r="L17" s="7" t="s">
-        <v>79</v>
       </c>
       <c r="M17" s="7">
         <v>1</v>
@@ -3322,13 +3316,13 @@
         <v>455</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="P17" s="7" t="s">
         <v>17</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -3337,25 +3331,25 @@
         <v>3</v>
       </c>
       <c r="C18" s="7">
+        <v>4</v>
+      </c>
+      <c r="D18" s="7">
+        <v>2380</v>
+      </c>
+      <c r="E18" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="F18" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="G18" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="H18" s="7">
         <v>9</v>
       </c>
-      <c r="D18" s="7">
+      <c r="I18" s="7">
         <v>6210</v>
-      </c>
-      <c r="E18" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="F18" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="G18" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="H18" s="7">
-        <v>4</v>
-      </c>
-      <c r="I18" s="7">
-        <v>2380</v>
       </c>
       <c r="J18" s="7" t="s">
         <v>13</v>
